--- a/additional_files/ECT_PC1_with_FPKM_values.xlsx
+++ b/additional_files/ECT_PC1_with_FPKM_values.xlsx
@@ -652,1147 +652,1147 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ENSMUSG00000050966</t>
+          <t>ENSMUSG00000029288</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Lin28a</t>
+          <t>Ambn</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>chr4:134003329-134018841</t>
+          <t>chr5:88455990-88468531</t>
         </is>
       </c>
       <c r="D5">
-        <v>88.4691</v>
+        <v>0.108425</v>
       </c>
       <c r="E5">
-        <v>109.108</v>
+        <v>0.09450359999999999</v>
       </c>
       <c r="F5">
-        <v>9.85613</v>
+        <v>1.3273</v>
       </c>
       <c r="G5">
-        <v>9.56878</v>
+        <v>1.86992</v>
       </c>
       <c r="H5">
-        <v>1.65143</v>
+        <v>29.71</v>
       </c>
       <c r="I5">
-        <v>5.36827</v>
+        <v>7.19532</v>
       </c>
       <c r="J5">
-        <v>0.137431</v>
+        <v>90.64279999999999</v>
       </c>
       <c r="K5">
-        <v>1.35302</v>
+        <v>26.4026</v>
       </c>
       <c r="L5">
-        <v>81.07250000000001</v>
+        <v>0.0461349</v>
       </c>
       <c r="M5">
-        <v>108.919</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>2.96117</v>
+        <v>0.075853</v>
       </c>
       <c r="O5">
-        <v>2.47942</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.0442237</v>
+        <v>0.334421</v>
       </c>
       <c r="Q5">
-        <v>0.08723309999999999</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>0.0104423</v>
+        <v>0.088686</v>
       </c>
       <c r="S5">
-        <v>0.0165263</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ENSMUSG00000032394</t>
+          <t>ENSMUSG00000050328</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Igdcc3</t>
+          <t>Hoxc12</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>chr9:65141188-65185872</t>
+          <t>chr15:102936756-102938609</t>
         </is>
       </c>
       <c r="D6">
-        <v>138.67</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>100.362</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>89.9378</v>
+        <v>1.55805</v>
       </c>
       <c r="G6">
-        <v>51.3037</v>
+        <v>2.38952</v>
       </c>
       <c r="H6">
-        <v>4.42878</v>
+        <v>16.1923</v>
       </c>
       <c r="I6">
-        <v>13.4018</v>
+        <v>13.6656</v>
       </c>
       <c r="J6">
-        <v>0.680704</v>
+        <v>42.1568</v>
       </c>
       <c r="K6">
-        <v>1.88373</v>
+        <v>33.7861</v>
       </c>
       <c r="L6">
-        <v>300.355</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>294.417</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>189.801</v>
+        <v>0.0272699</v>
       </c>
       <c r="O6">
-        <v>91.221</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>1.98391</v>
+        <v>0.263101</v>
       </c>
       <c r="Q6">
-        <v>7.50832</v>
+        <v>0.0593117</v>
       </c>
       <c r="R6">
-        <v>0.47699</v>
+        <v>0.0709998</v>
       </c>
       <c r="S6">
-        <v>0.530118</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ENSMUSG00000052217</t>
+          <t>ENSMUSG00000046352</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Hbb-bh1</t>
+          <t>Gjb2</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>chr7:103841636-103843164</t>
+          <t>chr14:57098599-57104702</t>
         </is>
       </c>
       <c r="D7">
-        <v>33.047</v>
+        <v>1.3797</v>
       </c>
       <c r="E7">
-        <v>240.348</v>
+        <v>0.719453</v>
       </c>
       <c r="F7">
-        <v>22.217</v>
+        <v>15.3267</v>
       </c>
       <c r="G7">
-        <v>54.5293</v>
+        <v>16.127</v>
       </c>
       <c r="H7">
-        <v>1.78487</v>
+        <v>22.6347</v>
       </c>
       <c r="I7">
-        <v>4.55959</v>
+        <v>31.3182</v>
       </c>
       <c r="J7">
-        <v>1.99472</v>
+        <v>113.455</v>
       </c>
       <c r="K7">
-        <v>0.644687</v>
+        <v>84.3323</v>
       </c>
       <c r="L7">
-        <v>1259.15</v>
+        <v>0.0301058</v>
       </c>
       <c r="M7">
-        <v>836.026</v>
+        <v>0.417365</v>
       </c>
       <c r="N7">
-        <v>1328.48</v>
+        <v>0.853039</v>
       </c>
       <c r="O7">
-        <v>1041.84</v>
+        <v>0.804664</v>
       </c>
       <c r="P7">
-        <v>400.596</v>
+        <v>1.53007</v>
       </c>
       <c r="Q7">
-        <v>513.7430000000001</v>
+        <v>1.95702</v>
       </c>
       <c r="R7">
-        <v>70.0363</v>
+        <v>0.578061</v>
       </c>
       <c r="S7">
-        <v>151.851</v>
+        <v>0.818553</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ENSMUSG00000029288</t>
+          <t>ENSMUSG00000021186</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Ambn</t>
+          <t>Fbln5</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>chr5:88455990-88468531</t>
+          <t>chr12:101746564-101819055</t>
         </is>
       </c>
       <c r="D8">
-        <v>0.108425</v>
+        <v>0.466689</v>
       </c>
       <c r="E8">
-        <v>0.09450359999999999</v>
+        <v>0.08343680000000001</v>
       </c>
       <c r="F8">
-        <v>1.3273</v>
+        <v>8.34064</v>
       </c>
       <c r="G8">
-        <v>1.86992</v>
+        <v>9.90734</v>
       </c>
       <c r="H8">
-        <v>29.71</v>
+        <v>37.6691</v>
       </c>
       <c r="I8">
-        <v>7.19532</v>
+        <v>35.7362</v>
       </c>
       <c r="J8">
-        <v>90.64279999999999</v>
+        <v>37.1705</v>
       </c>
       <c r="K8">
-        <v>26.4026</v>
+        <v>36.5412</v>
       </c>
       <c r="L8">
-        <v>0.0461349</v>
+        <v>1.45038</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.972843</v>
       </c>
       <c r="N8">
-        <v>0.075853</v>
+        <v>1.39737</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>0.689326</v>
       </c>
       <c r="P8">
-        <v>0.334421</v>
+        <v>2.88525</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>1.93464</v>
       </c>
       <c r="R8">
-        <v>0.088686</v>
+        <v>10.0146</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>4.05435</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ENSMUSG00000050328</t>
+          <t>ENSMUSG00000024659</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Hoxc12</t>
+          <t>Anxa1</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>chr15:102936756-102938609</t>
+          <t>chr19:20373427-20390944</t>
         </is>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.088633</v>
       </c>
       <c r="F9">
-        <v>1.55805</v>
+        <v>9.72101</v>
       </c>
       <c r="G9">
-        <v>2.38952</v>
+        <v>13.0444</v>
       </c>
       <c r="H9">
-        <v>16.1923</v>
+        <v>15.9605</v>
       </c>
       <c r="I9">
-        <v>13.6656</v>
+        <v>23.6139</v>
       </c>
       <c r="J9">
-        <v>42.1568</v>
+        <v>39.6875</v>
       </c>
       <c r="K9">
-        <v>33.7861</v>
+        <v>30.69</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.0865406</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.119974</v>
       </c>
       <c r="N9">
-        <v>0.0272699</v>
+        <v>0.100771</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>0.180707</v>
       </c>
       <c r="P9">
-        <v>0.263101</v>
+        <v>0.671314</v>
       </c>
       <c r="Q9">
-        <v>0.0593117</v>
+        <v>0.511413</v>
       </c>
       <c r="R9">
-        <v>0.0709998</v>
+        <v>1.02761</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>0.484436</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ENSMUSG00000092035</t>
+          <t>ENSMUSG00000025064</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Peg10</t>
+          <t>Col17a1</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>chr6:4747305-4760517</t>
+          <t>chr19:47646343-47692094</t>
         </is>
       </c>
       <c r="D10">
-        <v>155.627</v>
+        <v>5.27031</v>
       </c>
       <c r="E10">
-        <v>300.493</v>
+        <v>3.39695</v>
       </c>
       <c r="F10">
-        <v>22.342</v>
+        <v>14.3773</v>
       </c>
       <c r="G10">
-        <v>27.812</v>
+        <v>17.1647</v>
       </c>
       <c r="H10">
-        <v>10.4649</v>
+        <v>79.21250000000001</v>
       </c>
       <c r="I10">
-        <v>11.3882</v>
+        <v>52.7212</v>
       </c>
       <c r="J10">
-        <v>2.9848</v>
+        <v>166.071</v>
       </c>
       <c r="K10">
-        <v>5.42178</v>
+        <v>159.089</v>
       </c>
       <c r="L10">
-        <v>150.36</v>
+        <v>0.039673</v>
       </c>
       <c r="M10">
-        <v>304.77</v>
+        <v>0.08171589999999999</v>
       </c>
       <c r="N10">
-        <v>81.09869999999999</v>
+        <v>0.287464</v>
       </c>
       <c r="O10">
-        <v>97.4571</v>
+        <v>0.353478</v>
       </c>
       <c r="P10">
-        <v>34.89</v>
+        <v>1.98332</v>
       </c>
       <c r="Q10">
-        <v>66.0727</v>
+        <v>0.886748</v>
       </c>
       <c r="R10">
-        <v>12.3168</v>
+        <v>0.183994</v>
       </c>
       <c r="S10">
-        <v>30.0879</v>
+        <v>0.169212</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ENSMUSG00000046352</t>
+          <t>ENSMUSG00000005917</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Gjb2</t>
+          <t>Otx1</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>chr14:57098599-57104702</t>
+          <t>chr11:21994763-22002897</t>
         </is>
       </c>
       <c r="D11">
-        <v>1.3797</v>
+        <v>0.1261</v>
       </c>
       <c r="E11">
-        <v>0.719453</v>
+        <v>0.0709322</v>
       </c>
       <c r="F11">
-        <v>15.3267</v>
+        <v>0.5759570000000001</v>
       </c>
       <c r="G11">
-        <v>16.127</v>
+        <v>1.22463</v>
       </c>
       <c r="H11">
-        <v>22.6347</v>
+        <v>10.5045</v>
       </c>
       <c r="I11">
-        <v>31.3182</v>
+        <v>5.73016</v>
       </c>
       <c r="J11">
-        <v>113.455</v>
+        <v>33.2825</v>
       </c>
       <c r="K11">
-        <v>84.3323</v>
+        <v>29.0884</v>
       </c>
       <c r="L11">
-        <v>0.0301058</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0.417365</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0.853039</v>
+        <v>0.0100808</v>
       </c>
       <c r="O11">
-        <v>0.804664</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>1.53007</v>
+        <v>0.404499</v>
       </c>
       <c r="Q11">
-        <v>1.95702</v>
+        <v>0.1739</v>
       </c>
       <c r="R11">
-        <v>0.578061</v>
+        <v>0.0131231</v>
       </c>
       <c r="S11">
-        <v>0.818553</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>ENSMUSG00000021186</t>
+          <t>ENSMUSG00000001655</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Fbln5</t>
+          <t>Hoxc13</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>chr12:101746564-101819055</t>
+          <t>chr15:102921102-102928814</t>
         </is>
       </c>
       <c r="D12">
-        <v>0.466689</v>
+        <v>0.311277</v>
       </c>
       <c r="E12">
-        <v>0.08343680000000001</v>
+        <v>0.622988</v>
       </c>
       <c r="F12">
-        <v>8.34064</v>
+        <v>11.2949</v>
       </c>
       <c r="G12">
-        <v>9.90734</v>
+        <v>11.3073</v>
       </c>
       <c r="H12">
-        <v>37.6691</v>
+        <v>18.7586</v>
       </c>
       <c r="I12">
-        <v>35.7362</v>
+        <v>22.2047</v>
       </c>
       <c r="J12">
-        <v>37.1705</v>
+        <v>40.7723</v>
       </c>
       <c r="K12">
-        <v>36.5412</v>
+        <v>36.1998</v>
       </c>
       <c r="L12">
-        <v>1.45038</v>
+        <v>0.0147165</v>
       </c>
       <c r="M12">
-        <v>0.972843</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>1.39737</v>
+        <v>0.125667</v>
       </c>
       <c r="O12">
-        <v>0.689326</v>
+        <v>0.0245838</v>
       </c>
       <c r="P12">
-        <v>2.88525</v>
+        <v>0.409397</v>
       </c>
       <c r="Q12">
-        <v>1.93464</v>
+        <v>0.372717</v>
       </c>
       <c r="R12">
-        <v>10.0146</v>
+        <v>0.0446165</v>
       </c>
       <c r="S12">
-        <v>4.05435</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ENSMUSG00000024659</t>
+          <t>ENSMUSG00000021508</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Anxa1</t>
+          <t>Cxcl14</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>chr19:20373427-20390944</t>
+          <t>chr13:56288642-56296551</t>
         </is>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>18.4491</v>
       </c>
       <c r="E13">
-        <v>0.088633</v>
+        <v>20.411</v>
       </c>
       <c r="F13">
-        <v>9.72101</v>
+        <v>83.02970000000001</v>
       </c>
       <c r="G13">
-        <v>13.0444</v>
+        <v>59.0497</v>
       </c>
       <c r="H13">
-        <v>15.9605</v>
+        <v>193.61</v>
       </c>
       <c r="I13">
-        <v>23.6139</v>
+        <v>165.561</v>
       </c>
       <c r="J13">
-        <v>39.6875</v>
+        <v>665.99</v>
       </c>
       <c r="K13">
-        <v>30.69</v>
+        <v>408.669</v>
       </c>
       <c r="L13">
-        <v>0.0865406</v>
+        <v>0.872248</v>
       </c>
       <c r="M13">
-        <v>0.119974</v>
+        <v>0.137832</v>
       </c>
       <c r="N13">
-        <v>0.100771</v>
+        <v>11.2371</v>
       </c>
       <c r="O13">
-        <v>0.180707</v>
+        <v>9.05186</v>
       </c>
       <c r="P13">
-        <v>0.671314</v>
+        <v>17.4452</v>
       </c>
       <c r="Q13">
-        <v>0.511413</v>
+        <v>10.3145</v>
       </c>
       <c r="R13">
-        <v>1.02761</v>
+        <v>52.4021</v>
       </c>
       <c r="S13">
-        <v>0.484436</v>
+        <v>15.7491</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ENSMUSG00000025064</t>
+          <t>ENSMUSG00000021950</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Col17a1</t>
+          <t>Anxa8</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>chr19:47646343-47692094</t>
+          <t>chr14:34085980-34100571</t>
         </is>
       </c>
       <c r="D14">
-        <v>5.27031</v>
+        <v>0.679127</v>
       </c>
       <c r="E14">
-        <v>3.39695</v>
+        <v>0.263071</v>
       </c>
       <c r="F14">
-        <v>14.3773</v>
+        <v>2.00614</v>
       </c>
       <c r="G14">
-        <v>17.1647</v>
+        <v>2.02552</v>
       </c>
       <c r="H14">
-        <v>79.21250000000001</v>
+        <v>12.8959</v>
       </c>
       <c r="I14">
-        <v>52.7212</v>
+        <v>4.49051</v>
       </c>
       <c r="J14">
-        <v>166.071</v>
+        <v>46.2032</v>
       </c>
       <c r="K14">
-        <v>159.089</v>
+        <v>18.9489</v>
       </c>
       <c r="L14">
-        <v>0.039673</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0.08171589999999999</v>
+        <v>0.0415633</v>
       </c>
       <c r="N14">
-        <v>0.287464</v>
+        <v>0.134463</v>
       </c>
       <c r="O14">
-        <v>0.353478</v>
+        <v>0.0500827</v>
       </c>
       <c r="P14">
-        <v>1.98332</v>
+        <v>0.195022</v>
       </c>
       <c r="Q14">
-        <v>0.886748</v>
+        <v>0.0650578</v>
       </c>
       <c r="R14">
-        <v>0.183994</v>
+        <v>0</v>
       </c>
       <c r="S14">
-        <v>0.169212</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>ENSMUSG00000005917</t>
+          <t>ENSMUSG00000009097</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Otx1</t>
+          <t>Tbx1</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>chr11:21994763-22002897</t>
+          <t>chr16:18580978-18590671</t>
         </is>
       </c>
       <c r="D15">
-        <v>0.1261</v>
+        <v>0.0677962</v>
       </c>
       <c r="E15">
-        <v>0.0709322</v>
+        <v>0.133092</v>
       </c>
       <c r="F15">
-        <v>0.5759570000000001</v>
+        <v>1.78735</v>
       </c>
       <c r="G15">
-        <v>1.22463</v>
+        <v>2.40287</v>
       </c>
       <c r="H15">
-        <v>10.5045</v>
+        <v>8.98334</v>
       </c>
       <c r="I15">
-        <v>5.73016</v>
+        <v>10.0482</v>
       </c>
       <c r="J15">
-        <v>33.2825</v>
+        <v>21.6167</v>
       </c>
       <c r="K15">
-        <v>29.0884</v>
+        <v>15.5166</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.345212</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.343695</v>
       </c>
       <c r="N15">
-        <v>0.0100808</v>
+        <v>1.2973</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>0.813626</v>
       </c>
       <c r="P15">
-        <v>0.404499</v>
+        <v>2.45918</v>
       </c>
       <c r="Q15">
-        <v>0.1739</v>
+        <v>1.60597</v>
       </c>
       <c r="R15">
-        <v>0.0131231</v>
+        <v>1.3314</v>
       </c>
       <c r="S15">
-        <v>0</v>
+        <v>2.09342</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>ENSMUSG00000001655</t>
+          <t>ENSMUSG00000001656</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Hoxc13</t>
+          <t>Hoxc11</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>chr15:102921102-102928814</t>
+          <t>chr15:102954426-102957708</t>
         </is>
       </c>
       <c r="D16">
-        <v>0.311277</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>0.622988</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>11.2949</v>
+        <v>1.03673</v>
       </c>
       <c r="G16">
-        <v>11.3073</v>
+        <v>1.10818</v>
       </c>
       <c r="H16">
-        <v>18.7586</v>
+        <v>6.05994</v>
       </c>
       <c r="I16">
-        <v>22.2047</v>
+        <v>6.88674</v>
       </c>
       <c r="J16">
-        <v>40.7723</v>
+        <v>20.0393</v>
       </c>
       <c r="K16">
-        <v>36.1998</v>
+        <v>13.716</v>
       </c>
       <c r="L16">
-        <v>0.0147165</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.125667</v>
+        <v>0.0278231</v>
       </c>
       <c r="O16">
-        <v>0.0245838</v>
+        <v>0.029936</v>
       </c>
       <c r="P16">
-        <v>0.409397</v>
+        <v>0.268438</v>
       </c>
       <c r="Q16">
-        <v>0.372717</v>
+        <v>0.060515</v>
       </c>
       <c r="R16">
-        <v>0.0446165</v>
+        <v>0.0543301</v>
       </c>
       <c r="S16">
-        <v>0</v>
+        <v>0.0286614</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>ENSMUSG00000036030</t>
+          <t>ENSMUSG00000040055</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Prtg</t>
+          <t>Gjb6</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>chr9:72806873-72917291</t>
+          <t>chr14:57123302-57133611</t>
         </is>
       </c>
       <c r="D17">
-        <v>26.2757</v>
+        <v>0.736273</v>
       </c>
       <c r="E17">
-        <v>32.3516</v>
+        <v>0.305437</v>
       </c>
       <c r="F17">
-        <v>3.35158</v>
+        <v>1.8291</v>
       </c>
       <c r="G17">
-        <v>3.3969</v>
+        <v>1.94172</v>
       </c>
       <c r="H17">
-        <v>0.37424</v>
+        <v>3.87912</v>
       </c>
       <c r="I17">
-        <v>1.29073</v>
+        <v>7.35548</v>
       </c>
       <c r="J17">
-        <v>0.137715</v>
+        <v>36.7753</v>
       </c>
       <c r="K17">
-        <v>0.499885</v>
+        <v>26.6231</v>
       </c>
       <c r="L17">
-        <v>21.1017</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>35.8127</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>2.47714</v>
+        <v>0.195729</v>
       </c>
       <c r="O17">
-        <v>2.4933</v>
+        <v>0.0287414</v>
       </c>
       <c r="P17">
-        <v>0.207564</v>
+        <v>0.0420976</v>
       </c>
       <c r="Q17">
-        <v>0.648403</v>
+        <v>0.137072</v>
       </c>
       <c r="R17">
-        <v>0.0440101</v>
+        <v>0.0996575</v>
       </c>
       <c r="S17">
-        <v>0.183627</v>
+        <v>0.0550353</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>ENSMUSG00000021508</t>
+          <t>ENSMUSG00000022484</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Cxcl14</t>
+          <t>Hoxc10</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>chr13:56288642-56296551</t>
+          <t>chr15:102966795-102971893</t>
         </is>
       </c>
       <c r="D18">
-        <v>18.4491</v>
+        <v>0.222936</v>
       </c>
       <c r="E18">
-        <v>20.411</v>
+        <v>0.181352</v>
       </c>
       <c r="F18">
-        <v>83.02970000000001</v>
+        <v>7.71947</v>
       </c>
       <c r="G18">
-        <v>59.0497</v>
+        <v>7.65509</v>
       </c>
       <c r="H18">
-        <v>193.61</v>
+        <v>15.2529</v>
       </c>
       <c r="I18">
-        <v>165.561</v>
+        <v>15.1194</v>
       </c>
       <c r="J18">
-        <v>665.99</v>
+        <v>20.7103</v>
       </c>
       <c r="K18">
-        <v>408.669</v>
+        <v>14.9939</v>
       </c>
       <c r="L18">
-        <v>0.872248</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0.137832</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>11.2371</v>
+        <v>0.117822</v>
       </c>
       <c r="O18">
-        <v>9.05186</v>
+        <v>0.09507699999999999</v>
       </c>
       <c r="P18">
-        <v>17.4452</v>
+        <v>0.324786</v>
       </c>
       <c r="Q18">
-        <v>10.3145</v>
+        <v>0.128131</v>
       </c>
       <c r="R18">
-        <v>52.4021</v>
+        <v>0</v>
       </c>
       <c r="S18">
-        <v>15.7491</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>ENSMUSG00000055609</t>
+          <t>ENSMUSG00000006205</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Hba-x</t>
+          <t>Htra1</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>chr11:32276399-32278116</t>
+          <t>chr7:130936202-130985660</t>
         </is>
       </c>
       <c r="D19">
-        <v>37.3918</v>
+        <v>1.04259</v>
       </c>
       <c r="E19">
-        <v>289.501</v>
+        <v>0.872347</v>
       </c>
       <c r="F19">
-        <v>27.0503</v>
+        <v>5.23551</v>
       </c>
       <c r="G19">
-        <v>80.57769999999999</v>
+        <v>4.11495</v>
       </c>
       <c r="H19">
-        <v>5.01291</v>
+        <v>11.638</v>
       </c>
       <c r="I19">
-        <v>11.0448</v>
+        <v>9.809670000000001</v>
       </c>
       <c r="J19">
-        <v>8.42681</v>
+        <v>43.8251</v>
       </c>
       <c r="K19">
-        <v>2.34314</v>
+        <v>27.0801</v>
       </c>
       <c r="L19">
-        <v>1369.86</v>
+        <v>0.337152</v>
       </c>
       <c r="M19">
-        <v>1021.83</v>
+        <v>0.147601</v>
       </c>
       <c r="N19">
-        <v>2003.07</v>
+        <v>0.454583</v>
       </c>
       <c r="O19">
-        <v>1590.96</v>
+        <v>0.266784</v>
       </c>
       <c r="P19">
-        <v>1269.92</v>
+        <v>0.626547</v>
       </c>
       <c r="Q19">
-        <v>1380.82</v>
+        <v>0.359532</v>
       </c>
       <c r="R19">
-        <v>558.727</v>
+        <v>1.81119</v>
       </c>
       <c r="S19">
-        <v>576.841</v>
+        <v>0.624372</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ENSMUSG00000021950</t>
+          <t>ENSMUSG00000051397</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Anxa8</t>
+          <t>Tacstd2</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>chr14:34085980-34100571</t>
+          <t>chr6:67534061-67535796</t>
         </is>
       </c>
       <c r="D20">
-        <v>0.679127</v>
+        <v>4.02282</v>
       </c>
       <c r="E20">
-        <v>0.263071</v>
+        <v>2.93608</v>
       </c>
       <c r="F20">
-        <v>2.00614</v>
+        <v>53.5381</v>
       </c>
       <c r="G20">
-        <v>2.02552</v>
+        <v>46.2125</v>
       </c>
       <c r="H20">
-        <v>12.8959</v>
+        <v>51.3039</v>
       </c>
       <c r="I20">
-        <v>4.49051</v>
+        <v>56.9099</v>
       </c>
       <c r="J20">
-        <v>46.2032</v>
+        <v>82.7135</v>
       </c>
       <c r="K20">
-        <v>18.9489</v>
+        <v>63.9403</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.0208745</v>
       </c>
       <c r="M20">
-        <v>0.0415633</v>
+        <v>0.0289389</v>
       </c>
       <c r="N20">
-        <v>0.134463</v>
+        <v>0.599576</v>
       </c>
       <c r="O20">
-        <v>0.0500827</v>
+        <v>0.244095</v>
       </c>
       <c r="P20">
-        <v>0.195022</v>
+        <v>0.848725</v>
       </c>
       <c r="Q20">
-        <v>0.0650578</v>
+        <v>0.352452</v>
       </c>
       <c r="R20">
-        <v>0</v>
+        <v>0.063286</v>
       </c>
       <c r="S20">
-        <v>0</v>
+        <v>0.033386</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>ENSMUSG00000009097</t>
+          <t>ENSMUSG00000004044</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Tbx1</t>
+          <t>Cavin1</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>chr16:18580978-18590671</t>
+          <t>chr11:100956732-100970887</t>
         </is>
       </c>
       <c r="D21">
-        <v>0.0677962</v>
+        <v>0.682691</v>
       </c>
       <c r="E21">
-        <v>0.133092</v>
+        <v>0.283341</v>
       </c>
       <c r="F21">
-        <v>1.78735</v>
+        <v>2.22067</v>
       </c>
       <c r="G21">
-        <v>2.40287</v>
+        <v>2.02086</v>
       </c>
       <c r="H21">
-        <v>8.98334</v>
+        <v>7.80499</v>
       </c>
       <c r="I21">
-        <v>10.0482</v>
+        <v>5.0816</v>
       </c>
       <c r="J21">
-        <v>21.6167</v>
+        <v>30.5577</v>
       </c>
       <c r="K21">
-        <v>15.5166</v>
+        <v>16.6894</v>
       </c>
       <c r="L21">
-        <v>0.345212</v>
+        <v>11.8788</v>
       </c>
       <c r="M21">
-        <v>0.343695</v>
+        <v>8.643840000000001</v>
       </c>
       <c r="N21">
-        <v>1.2973</v>
+        <v>7.94088</v>
       </c>
       <c r="O21">
-        <v>0.813626</v>
+        <v>5.47643</v>
       </c>
       <c r="P21">
-        <v>2.45918</v>
+        <v>8.6915</v>
       </c>
       <c r="Q21">
-        <v>1.60597</v>
+        <v>5.43014</v>
       </c>
       <c r="R21">
-        <v>1.3314</v>
+        <v>11.952</v>
       </c>
       <c r="S21">
-        <v>2.09342</v>
+        <v>8.06399</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>ENSMUSG00000001656</t>
+          <t>ENSMUSG00000049436</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Hoxc11</t>
+          <t>Upk1b</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>chr15:102954426-102957708</t>
+          <t>chr16:38773183-38800328</t>
         </is>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>0.269642</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>0.10445</v>
       </c>
       <c r="F22">
-        <v>1.03673</v>
+        <v>2.91312</v>
       </c>
       <c r="G22">
-        <v>1.10818</v>
+        <v>3.84308</v>
       </c>
       <c r="H22">
-        <v>6.05994</v>
+        <v>7.06259</v>
       </c>
       <c r="I22">
-        <v>6.88674</v>
+        <v>10.3</v>
       </c>
       <c r="J22">
-        <v>20.0393</v>
+        <v>18.292</v>
       </c>
       <c r="K22">
-        <v>13.716</v>
+        <v>13.1453</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1801,5157 +1801,5157 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.0278231</v>
+        <v>0.0890662</v>
       </c>
       <c r="O22">
-        <v>0.029936</v>
+        <v>0.0319433</v>
       </c>
       <c r="P22">
-        <v>0.268438</v>
+        <v>0.245519</v>
       </c>
       <c r="Q22">
-        <v>0.060515</v>
+        <v>0.258291</v>
       </c>
       <c r="R22">
-        <v>0.0543301</v>
+        <v>0.0193244</v>
       </c>
       <c r="S22">
-        <v>0.0286614</v>
+        <v>0.0305832</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>ENSMUSG00000022485</t>
+          <t>ENSMUSG00000034226</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Hoxc5</t>
+          <t>Rhov</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>chr15:103013814-103017429</t>
+          <t>chr2:119269200-119271272</t>
         </is>
       </c>
       <c r="D23">
-        <v>35.8173</v>
+        <v>0.399845</v>
       </c>
       <c r="E23">
-        <v>35.972</v>
+        <v>0.116165</v>
       </c>
       <c r="F23">
-        <v>8.195510000000001</v>
+        <v>14.9689</v>
       </c>
       <c r="G23">
-        <v>8.830550000000001</v>
+        <v>15.6169</v>
       </c>
       <c r="H23">
-        <v>1.58179</v>
+        <v>9.346880000000001</v>
       </c>
       <c r="I23">
-        <v>4.64449</v>
+        <v>16.8813</v>
       </c>
       <c r="J23">
-        <v>0.570443</v>
+        <v>18.2547</v>
       </c>
       <c r="K23">
-        <v>2.04733</v>
+        <v>19.2276</v>
       </c>
       <c r="L23">
-        <v>16.9873</v>
+        <v>0.0212667</v>
       </c>
       <c r="M23">
-        <v>17.4521</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>0.173135</v>
+        <v>0.132074</v>
       </c>
       <c r="O23">
-        <v>0.206981</v>
+        <v>0.0710518</v>
       </c>
       <c r="P23">
-        <v>0.119315</v>
+        <v>0.318564</v>
       </c>
       <c r="Q23">
-        <v>0.06276130000000001</v>
+        <v>0.251352</v>
       </c>
       <c r="R23">
-        <v>0</v>
+        <v>0.107459</v>
       </c>
       <c r="S23">
-        <v>0.0198169</v>
+        <v>0.272106</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>ENSMUSG00000040055</t>
+          <t>ENSMUSG00000032231</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Gjb6</t>
+          <t>Anxa2</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>chr14:57123302-57133611</t>
+          <t>chr9:69453619-69491795</t>
         </is>
       </c>
       <c r="D24">
-        <v>0.736273</v>
+        <v>30.3877</v>
       </c>
       <c r="E24">
-        <v>0.305437</v>
+        <v>22.046</v>
       </c>
       <c r="F24">
-        <v>1.8291</v>
+        <v>166.789</v>
       </c>
       <c r="G24">
-        <v>1.94172</v>
+        <v>142.419</v>
       </c>
       <c r="H24">
-        <v>3.87912</v>
+        <v>235.792</v>
       </c>
       <c r="I24">
-        <v>7.35548</v>
+        <v>224.17</v>
       </c>
       <c r="J24">
-        <v>36.7753</v>
+        <v>444.488</v>
       </c>
       <c r="K24">
-        <v>26.6231</v>
+        <v>318.102</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>30.9415</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>19.5724</v>
       </c>
       <c r="N24">
-        <v>0.195729</v>
+        <v>30.7189</v>
       </c>
       <c r="O24">
-        <v>0.0287414</v>
+        <v>22.4582</v>
       </c>
       <c r="P24">
-        <v>0.0420976</v>
+        <v>50.454</v>
       </c>
       <c r="Q24">
-        <v>0.137072</v>
+        <v>29.2942</v>
       </c>
       <c r="R24">
-        <v>0.0996575</v>
+        <v>129.693</v>
       </c>
       <c r="S24">
-        <v>0.0550353</v>
+        <v>47.9985</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>ENSMUSG00000024619</t>
+          <t>ENSMUSG00000025927</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Cdx1</t>
+          <t>Tfap2b</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>chr18:61018861-61036199</t>
+          <t>chr1:19208913-19238576</t>
         </is>
       </c>
       <c r="D25">
-        <v>14.8347</v>
+        <v>3.87139</v>
       </c>
       <c r="E25">
-        <v>13.6785</v>
+        <v>5.34811</v>
       </c>
       <c r="F25">
-        <v>1.83582</v>
+        <v>12.8015</v>
       </c>
       <c r="G25">
-        <v>0.671888</v>
+        <v>18.0286</v>
       </c>
       <c r="H25">
-        <v>0.141177</v>
+        <v>34.4678</v>
       </c>
       <c r="I25">
-        <v>0.0325951</v>
+        <v>25.9787</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>78.06959999999999</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>85.508</v>
       </c>
       <c r="L25">
-        <v>22.2891</v>
+        <v>0.0772258</v>
       </c>
       <c r="M25">
-        <v>18.1613</v>
+        <v>0.0270025</v>
       </c>
       <c r="N25">
-        <v>1.18887</v>
+        <v>23.0888</v>
       </c>
       <c r="O25">
-        <v>0.553149</v>
+        <v>47.6558</v>
       </c>
       <c r="P25">
-        <v>0.177147</v>
+        <v>33.0985</v>
       </c>
       <c r="Q25">
-        <v>0.209658</v>
+        <v>50.4932</v>
       </c>
       <c r="R25">
-        <v>0.188231</v>
+        <v>67.34350000000001</v>
       </c>
       <c r="S25">
-        <v>0.231699</v>
+        <v>53.3115</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>ENSMUSG00000022484</t>
+          <t>ENSMUSG00000057454</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Hoxc10</t>
+          <t>Lypd3</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>chr15:102966795-102971893</t>
+          <t>chr7:24636549-24641118</t>
         </is>
       </c>
       <c r="D26">
-        <v>0.222936</v>
+        <v>0.309704</v>
       </c>
       <c r="E26">
-        <v>0.181352</v>
+        <v>0.0299923</v>
       </c>
       <c r="F26">
-        <v>7.71947</v>
+        <v>13.172</v>
       </c>
       <c r="G26">
-        <v>7.65509</v>
+        <v>8.794169999999999</v>
       </c>
       <c r="H26">
-        <v>15.2529</v>
+        <v>9.48174</v>
       </c>
       <c r="I26">
-        <v>15.1194</v>
+        <v>10.6542</v>
       </c>
       <c r="J26">
-        <v>20.7103</v>
+        <v>22.9196</v>
       </c>
       <c r="K26">
-        <v>14.9939</v>
+        <v>11.0242</v>
       </c>
       <c r="L26">
-        <v>0</v>
+        <v>0.0219632</v>
       </c>
       <c r="M26">
         <v>0</v>
       </c>
       <c r="N26">
-        <v>0.117822</v>
+        <v>0.187549</v>
       </c>
       <c r="O26">
-        <v>0.09507699999999999</v>
+        <v>0.0733786</v>
       </c>
       <c r="P26">
-        <v>0.324786</v>
+        <v>0.164498</v>
       </c>
       <c r="Q26">
-        <v>0.128131</v>
+        <v>0.11125</v>
       </c>
       <c r="R26">
-        <v>0</v>
+        <v>0.133173</v>
       </c>
       <c r="S26">
-        <v>0</v>
+        <v>0.140509</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>ENSMUSG00000006205</t>
+          <t>ENSMUSG00000024421</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Htra1</t>
+          <t>Lama3</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>chr7:130936202-130985660</t>
+          <t>chr18:12333818-12583013</t>
         </is>
       </c>
       <c r="D27">
-        <v>1.04259</v>
+        <v>0.199337</v>
       </c>
       <c r="E27">
-        <v>0.872347</v>
+        <v>0.0531647</v>
       </c>
       <c r="F27">
-        <v>5.23551</v>
+        <v>0.791672</v>
       </c>
       <c r="G27">
-        <v>4.11495</v>
+        <v>0.886118</v>
       </c>
       <c r="H27">
-        <v>11.638</v>
+        <v>5.43533</v>
       </c>
       <c r="I27">
-        <v>9.809670000000001</v>
+        <v>2.96866</v>
       </c>
       <c r="J27">
-        <v>43.8251</v>
+        <v>16.7335</v>
       </c>
       <c r="K27">
-        <v>27.0801</v>
+        <v>13.5674</v>
       </c>
       <c r="L27">
-        <v>0.337152</v>
+        <v>0.0193478</v>
       </c>
       <c r="M27">
-        <v>0.147601</v>
+        <v>0.00952621</v>
       </c>
       <c r="N27">
-        <v>0.454583</v>
+        <v>0.0101298</v>
       </c>
       <c r="O27">
-        <v>0.266784</v>
+        <v>0.010899</v>
       </c>
       <c r="P27">
-        <v>0.626547</v>
+        <v>0.1322</v>
       </c>
       <c r="Q27">
-        <v>0.359532</v>
+        <v>0.0436796</v>
       </c>
       <c r="R27">
-        <v>1.81119</v>
+        <v>1.06068</v>
       </c>
       <c r="S27">
-        <v>0.624372</v>
+        <v>0.0919534</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>ENSMUSG00000024247</t>
+          <t>ENSMUSG00000053522</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Pkdcc</t>
+          <t>Lgals7</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>chr17:83215291-83225070</t>
+          <t>chr7:28863852-28866284</t>
         </is>
       </c>
       <c r="D28">
-        <v>31.2262</v>
+        <v>2.50795</v>
       </c>
       <c r="E28">
-        <v>23.8571</v>
+        <v>1.64901</v>
       </c>
       <c r="F28">
-        <v>5.85786</v>
+        <v>7.33442</v>
       </c>
       <c r="G28">
-        <v>5.3982</v>
+        <v>4.75276</v>
       </c>
       <c r="H28">
-        <v>1.34308</v>
+        <v>23.2863</v>
       </c>
       <c r="I28">
-        <v>2.86982</v>
+        <v>12.7122</v>
       </c>
       <c r="J28">
-        <v>0.658094</v>
+        <v>63.5443</v>
       </c>
       <c r="K28">
-        <v>1.00264</v>
+        <v>23.5985</v>
       </c>
       <c r="L28">
-        <v>180.121</v>
+        <v>0</v>
       </c>
       <c r="M28">
-        <v>185.017</v>
+        <v>0</v>
       </c>
       <c r="N28">
-        <v>3.28753</v>
+        <v>0.149153</v>
       </c>
       <c r="O28">
-        <v>4.68275</v>
+        <v>0.08023959999999999</v>
       </c>
       <c r="P28">
-        <v>0.312834</v>
+        <v>1.23348</v>
       </c>
       <c r="Q28">
-        <v>0.887964</v>
+        <v>0.648814</v>
       </c>
       <c r="R28">
-        <v>0.758733</v>
+        <v>7.28158</v>
       </c>
       <c r="S28">
-        <v>0.253939</v>
+        <v>2.15105</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>ENSMUSG00000051397</t>
+          <t>ENSMUSG00000025650</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Tacstd2</t>
+          <t>Col7a1</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>chr6:67534061-67535796</t>
+          <t>chr9:108953585-108984875</t>
         </is>
       </c>
       <c r="D29">
-        <v>4.02282</v>
+        <v>0.286851</v>
       </c>
       <c r="E29">
-        <v>2.93608</v>
+        <v>0.352887</v>
       </c>
       <c r="F29">
-        <v>53.5381</v>
+        <v>1.30589</v>
       </c>
       <c r="G29">
-        <v>46.2125</v>
+        <v>3.22066</v>
       </c>
       <c r="H29">
-        <v>51.3039</v>
+        <v>5.30179</v>
       </c>
       <c r="I29">
-        <v>56.9099</v>
+        <v>5.90958</v>
       </c>
       <c r="J29">
-        <v>82.7135</v>
+        <v>16.5185</v>
       </c>
       <c r="K29">
-        <v>63.9403</v>
+        <v>15.8727</v>
       </c>
       <c r="L29">
-        <v>0.0208745</v>
+        <v>0.11418</v>
       </c>
       <c r="M29">
-        <v>0.0289389</v>
+        <v>0.262008</v>
       </c>
       <c r="N29">
-        <v>0.599576</v>
+        <v>0.718311</v>
       </c>
       <c r="O29">
-        <v>0.244095</v>
+        <v>1.43894</v>
       </c>
       <c r="P29">
-        <v>0.848725</v>
+        <v>0.661429</v>
       </c>
       <c r="Q29">
-        <v>0.352452</v>
+        <v>1.02096</v>
       </c>
       <c r="R29">
-        <v>0.063286</v>
+        <v>1.47985</v>
       </c>
       <c r="S29">
-        <v>0.033386</v>
+        <v>1.29728</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>ENSMUSG00000063972</t>
+          <t>ENSMUSG00000024987</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Nr6a1</t>
+          <t>Cyp26a1</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>chr2:38723369-38927688</t>
+          <t>chr19:37697807-37701528</t>
         </is>
       </c>
       <c r="D30">
-        <v>19.8387</v>
+        <v>3.3125</v>
       </c>
       <c r="E30">
-        <v>27.4237</v>
+        <v>2.67789</v>
       </c>
       <c r="F30">
-        <v>3.25816</v>
+        <v>15.7566</v>
       </c>
       <c r="G30">
-        <v>3.62896</v>
+        <v>20.0215</v>
       </c>
       <c r="H30">
-        <v>0.384514</v>
+        <v>29.9992</v>
       </c>
       <c r="I30">
-        <v>1.41518</v>
+        <v>44.9446</v>
       </c>
       <c r="J30">
-        <v>0.5296</v>
+        <v>35.4233</v>
       </c>
       <c r="K30">
-        <v>1.41332</v>
+        <v>52.5396</v>
       </c>
       <c r="L30">
-        <v>12.3095</v>
+        <v>0.388115</v>
       </c>
       <c r="M30">
-        <v>22.2005</v>
+        <v>0.283187</v>
       </c>
       <c r="N30">
-        <v>0.53178</v>
+        <v>0.237862</v>
       </c>
       <c r="O30">
-        <v>0.621201</v>
+        <v>0.136493</v>
       </c>
       <c r="P30">
-        <v>0.105493</v>
+        <v>1.0491</v>
       </c>
       <c r="Q30">
-        <v>0.332953</v>
+        <v>0.448367</v>
       </c>
       <c r="R30">
-        <v>0.151829</v>
+        <v>0</v>
       </c>
       <c r="S30">
-        <v>0.18726</v>
+        <v>0.06534089999999999</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>ENSMUSG00000004044</t>
+          <t>ENSMUSG00000000861</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Cavin1</t>
+          <t>Bcl11a</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>chr11:100956732-100970887</t>
+          <t>chr11:24078055-24174123</t>
         </is>
       </c>
       <c r="D31">
-        <v>0.682691</v>
+        <v>1.73311</v>
       </c>
       <c r="E31">
-        <v>0.283341</v>
+        <v>1.47691</v>
       </c>
       <c r="F31">
-        <v>2.22067</v>
+        <v>13.1521</v>
       </c>
       <c r="G31">
-        <v>2.02086</v>
+        <v>14.3365</v>
       </c>
       <c r="H31">
-        <v>7.80499</v>
+        <v>26.5078</v>
       </c>
       <c r="I31">
-        <v>5.0816</v>
+        <v>18.036</v>
       </c>
       <c r="J31">
-        <v>30.5577</v>
+        <v>31.2316</v>
       </c>
       <c r="K31">
-        <v>16.6894</v>
+        <v>25.7235</v>
       </c>
       <c r="L31">
-        <v>11.8788</v>
+        <v>2.3536</v>
       </c>
       <c r="M31">
-        <v>8.643840000000001</v>
+        <v>1.35255</v>
       </c>
       <c r="N31">
-        <v>7.94088</v>
+        <v>26.8385</v>
       </c>
       <c r="O31">
-        <v>5.47643</v>
+        <v>32.2516</v>
       </c>
       <c r="P31">
-        <v>8.6915</v>
+        <v>47.7556</v>
       </c>
       <c r="Q31">
-        <v>5.43014</v>
+        <v>44.098</v>
       </c>
       <c r="R31">
-        <v>11.952</v>
+        <v>49.5601</v>
       </c>
       <c r="S31">
-        <v>8.06399</v>
+        <v>44.1029</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>ENSMUSG00000049436</t>
+          <t>ENSMUSG00000029026</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Upk1b</t>
+          <t>Trp73</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>chr16:38773183-38800328</t>
+          <t>chr4:154056252-154140208</t>
         </is>
       </c>
       <c r="D32">
-        <v>0.269642</v>
+        <v>0.460741</v>
       </c>
       <c r="E32">
-        <v>0.10445</v>
+        <v>0.6037360000000001</v>
       </c>
       <c r="F32">
-        <v>2.91312</v>
+        <v>3.19744</v>
       </c>
       <c r="G32">
-        <v>3.84308</v>
+        <v>3.72328</v>
       </c>
       <c r="H32">
-        <v>7.06259</v>
+        <v>6.14977</v>
       </c>
       <c r="I32">
-        <v>10.3</v>
+        <v>6.8901</v>
       </c>
       <c r="J32">
-        <v>18.292</v>
+        <v>20.4883</v>
       </c>
       <c r="K32">
-        <v>13.1453</v>
+        <v>16.1337</v>
       </c>
       <c r="L32">
         <v>0</v>
       </c>
       <c r="M32">
-        <v>0</v>
+        <v>0.0661514</v>
       </c>
       <c r="N32">
-        <v>0.0890662</v>
+        <v>0.0846512</v>
       </c>
       <c r="O32">
-        <v>0.0319433</v>
+        <v>0.0319454</v>
       </c>
       <c r="P32">
-        <v>0.245519</v>
+        <v>0.364146</v>
       </c>
       <c r="Q32">
-        <v>0.258291</v>
+        <v>0.0969068</v>
       </c>
       <c r="R32">
-        <v>0.0193244</v>
+        <v>0.0770192</v>
       </c>
       <c r="S32">
-        <v>0.0305832</v>
+        <v>0.0795358</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>ENSMUSG00000034226</t>
+          <t>ENSMUSG00000006411</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Rhov</t>
+          <t>Nectin4</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>chr2:119269200-119271272</t>
+          <t>chr1:171370098-171388598</t>
         </is>
       </c>
       <c r="D33">
-        <v>0.399845</v>
+        <v>2.46049</v>
       </c>
       <c r="E33">
-        <v>0.116165</v>
+        <v>1.70652</v>
       </c>
       <c r="F33">
-        <v>14.9689</v>
+        <v>19.7275</v>
       </c>
       <c r="G33">
-        <v>15.6169</v>
+        <v>26.2674</v>
       </c>
       <c r="H33">
-        <v>9.346880000000001</v>
+        <v>20.5808</v>
       </c>
       <c r="I33">
-        <v>16.8813</v>
+        <v>32.7142</v>
       </c>
       <c r="J33">
-        <v>18.2547</v>
+        <v>36.0015</v>
       </c>
       <c r="K33">
-        <v>19.2276</v>
+        <v>32.8735</v>
       </c>
       <c r="L33">
-        <v>0.0212667</v>
+        <v>0.0791998</v>
       </c>
       <c r="M33">
+        <v>0.0156789</v>
+      </c>
+      <c r="N33">
+        <v>0.28592</v>
+      </c>
+      <c r="O33">
+        <v>0.151197</v>
+      </c>
+      <c r="P33">
+        <v>0.520553</v>
+      </c>
+      <c r="Q33">
+        <v>0.20729</v>
+      </c>
+      <c r="R33">
+        <v>0.0563941</v>
+      </c>
+      <c r="S33">
         <v>0</v>
-      </c>
-      <c r="N33">
-        <v>0.132074</v>
-      </c>
-      <c r="O33">
-        <v>0.0710518</v>
-      </c>
-      <c r="P33">
-        <v>0.318564</v>
-      </c>
-      <c r="Q33">
-        <v>0.251352</v>
-      </c>
-      <c r="R33">
-        <v>0.107459</v>
-      </c>
-      <c r="S33">
-        <v>0.272106</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>ENSMUSG00000036596</t>
+          <t>ENSMUSG00000050315</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Cpz</t>
+          <t>Synpo2</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>chr5:35502217-35525698</t>
+          <t>chr3:123076518-123236147</t>
         </is>
       </c>
       <c r="D34">
-        <v>44.4595</v>
+        <v>0.401943</v>
       </c>
       <c r="E34">
-        <v>31.5289</v>
+        <v>0.450496</v>
       </c>
       <c r="F34">
-        <v>27.6564</v>
+        <v>2.38879</v>
       </c>
       <c r="G34">
-        <v>20.825</v>
+        <v>1.69887</v>
       </c>
       <c r="H34">
-        <v>3.99324</v>
+        <v>7.36555</v>
       </c>
       <c r="I34">
-        <v>11.637</v>
+        <v>3.40951</v>
       </c>
       <c r="J34">
-        <v>1.08933</v>
+        <v>19.347</v>
       </c>
       <c r="K34">
-        <v>2.56506</v>
+        <v>12.4175</v>
       </c>
       <c r="L34">
-        <v>0.403311</v>
+        <v>0.0635474</v>
       </c>
       <c r="M34">
-        <v>0.246013</v>
+        <v>0.108037</v>
       </c>
       <c r="N34">
-        <v>0.363181</v>
+        <v>1.27391</v>
       </c>
       <c r="O34">
-        <v>0.188643</v>
+        <v>2.02562</v>
       </c>
       <c r="P34">
-        <v>0.138098</v>
+        <v>4.20119</v>
       </c>
       <c r="Q34">
-        <v>0.0272385</v>
+        <v>1.98968</v>
       </c>
       <c r="R34">
-        <v>0.0326061</v>
+        <v>3.40883</v>
       </c>
       <c r="S34">
-        <v>0.265397</v>
+        <v>4.87157</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>ENSMUSG00000071192</t>
+          <t>ENSMUSG00000059898</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Wfikkn1</t>
+          <t>Dsc3</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>chr17:25877629-25880305</t>
+          <t>chr18:19960929-20002351</t>
         </is>
       </c>
       <c r="D35">
-        <v>14.5227</v>
+        <v>0.289994</v>
       </c>
       <c r="E35">
-        <v>14.7109</v>
+        <v>0.0741928</v>
       </c>
       <c r="F35">
-        <v>0.493766</v>
+        <v>1.10846</v>
       </c>
       <c r="G35">
-        <v>0.36743</v>
+        <v>0.947095</v>
       </c>
       <c r="H35">
-        <v>0.267254</v>
+        <v>3.96032</v>
       </c>
       <c r="I35">
-        <v>0.305951</v>
+        <v>3.32236</v>
       </c>
       <c r="J35">
-        <v>0.0561132</v>
+        <v>18.3511</v>
       </c>
       <c r="K35">
-        <v>0.227991</v>
+        <v>8.131130000000001</v>
       </c>
       <c r="L35">
-        <v>8.446429999999999</v>
+        <v>0.0271658</v>
       </c>
       <c r="M35">
-        <v>5.9799</v>
+        <v>0</v>
       </c>
       <c r="N35">
-        <v>0.22708</v>
+        <v>0.0384848</v>
       </c>
       <c r="O35">
-        <v>0.213783</v>
+        <v>0.113448</v>
       </c>
       <c r="P35">
-        <v>0.312999</v>
+        <v>1.61309</v>
       </c>
       <c r="Q35">
-        <v>0.453099</v>
+        <v>0.722698</v>
       </c>
       <c r="R35">
-        <v>0.0554271</v>
+        <v>0.579986</v>
       </c>
       <c r="S35">
-        <v>0.233921</v>
+        <v>1.76789</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>ENSMUSG00000032231</t>
+          <t>ENSMUSG00000022382</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Anxa2</t>
+          <t>Wnt7b</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>chr9:69453619-69491795</t>
+          <t>chr15:85535436-85582473</t>
         </is>
       </c>
       <c r="D36">
-        <v>30.3877</v>
+        <v>12.1875</v>
       </c>
       <c r="E36">
-        <v>22.046</v>
+        <v>9.45965</v>
       </c>
       <c r="F36">
-        <v>166.789</v>
+        <v>52.0168</v>
       </c>
       <c r="G36">
-        <v>142.419</v>
+        <v>38.9484</v>
       </c>
       <c r="H36">
-        <v>235.792</v>
+        <v>73.3886</v>
       </c>
       <c r="I36">
-        <v>224.17</v>
+        <v>71.342</v>
       </c>
       <c r="J36">
-        <v>444.488</v>
+        <v>161.432</v>
       </c>
       <c r="K36">
-        <v>318.102</v>
+        <v>100.208</v>
       </c>
       <c r="L36">
-        <v>30.9415</v>
+        <v>0.110596</v>
       </c>
       <c r="M36">
-        <v>19.5724</v>
+        <v>0.0398323</v>
       </c>
       <c r="N36">
-        <v>30.7189</v>
+        <v>0.924023</v>
       </c>
       <c r="O36">
-        <v>22.4582</v>
+        <v>0.290369</v>
       </c>
       <c r="P36">
-        <v>50.454</v>
+        <v>2.04709</v>
       </c>
       <c r="Q36">
-        <v>29.2942</v>
+        <v>1.15121</v>
       </c>
       <c r="R36">
-        <v>129.693</v>
+        <v>0.29275</v>
       </c>
       <c r="S36">
-        <v>47.9985</v>
+        <v>0.110902</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>ENSMUSG00000025927</t>
+          <t>ENSMUSG00000001819</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Tfap2b</t>
+          <t>Hoxd13</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>chr1:19208913-19238576</t>
+          <t>chr2:74668309-74671599</t>
         </is>
       </c>
       <c r="D37">
-        <v>3.87139</v>
+        <v>0.342799</v>
       </c>
       <c r="E37">
-        <v>5.34811</v>
+        <v>0.298775</v>
       </c>
       <c r="F37">
-        <v>12.8015</v>
+        <v>6.94754</v>
       </c>
       <c r="G37">
-        <v>18.0286</v>
+        <v>12.267</v>
       </c>
       <c r="H37">
-        <v>34.4678</v>
+        <v>94.6536</v>
       </c>
       <c r="I37">
-        <v>25.9787</v>
+        <v>13.1634</v>
       </c>
       <c r="J37">
-        <v>78.06959999999999</v>
+        <v>5.61099</v>
       </c>
       <c r="K37">
-        <v>85.508</v>
+        <v>8.66283</v>
       </c>
       <c r="L37">
-        <v>0.0772258</v>
+        <v>3.07766</v>
       </c>
       <c r="M37">
-        <v>0.0270025</v>
+        <v>2.70963</v>
       </c>
       <c r="N37">
-        <v>23.0888</v>
+        <v>129.298</v>
       </c>
       <c r="O37">
-        <v>47.6558</v>
+        <v>265.053</v>
       </c>
       <c r="P37">
-        <v>33.0985</v>
+        <v>318.03</v>
       </c>
       <c r="Q37">
-        <v>50.4932</v>
+        <v>376.63</v>
       </c>
       <c r="R37">
-        <v>67.34350000000001</v>
+        <v>202.223</v>
       </c>
       <c r="S37">
-        <v>53.3115</v>
+        <v>395.838</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>ENSMUSG00000057454</t>
+          <t>ENSMUSG00000026413</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Lypd3</t>
+          <t>Pkp1</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>chr7:24636549-24641118</t>
+          <t>chr1:135871394-135919207</t>
         </is>
       </c>
       <c r="D38">
-        <v>0.309704</v>
+        <v>1.16674</v>
       </c>
       <c r="E38">
-        <v>0.0299923</v>
+        <v>1.59951</v>
       </c>
       <c r="F38">
-        <v>13.172</v>
+        <v>7.03048</v>
       </c>
       <c r="G38">
-        <v>8.794169999999999</v>
+        <v>10.0252</v>
       </c>
       <c r="H38">
-        <v>9.48174</v>
+        <v>12.11</v>
       </c>
       <c r="I38">
-        <v>10.6542</v>
+        <v>15.4057</v>
       </c>
       <c r="J38">
-        <v>22.9196</v>
+        <v>27.3281</v>
       </c>
       <c r="K38">
-        <v>11.0242</v>
+        <v>22.7668</v>
       </c>
       <c r="L38">
-        <v>0.0219632</v>
+        <v>0.0119804</v>
       </c>
       <c r="M38">
-        <v>0</v>
+        <v>0.0512294</v>
       </c>
       <c r="N38">
-        <v>0.187549</v>
+        <v>0.0602389</v>
       </c>
       <c r="O38">
-        <v>0.0733786</v>
+        <v>0.0200132</v>
       </c>
       <c r="P38">
-        <v>0.164498</v>
+        <v>0.298788</v>
       </c>
       <c r="Q38">
-        <v>0.11125</v>
+        <v>0.130971</v>
       </c>
       <c r="R38">
-        <v>0.133173</v>
+        <v>0.0392275</v>
       </c>
       <c r="S38">
-        <v>0.140509</v>
+        <v>0.23572</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>ENSMUSG00000024421</t>
+          <t>ENSMUSG00000021281</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Lama3</t>
+          <t>Tnfaip2</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>chr18:12333818-12583013</t>
+          <t>chr12:111442468-111455018</t>
         </is>
       </c>
       <c r="D39">
-        <v>0.199337</v>
+        <v>0.294162</v>
       </c>
       <c r="E39">
-        <v>0.0531647</v>
+        <v>0.131466</v>
       </c>
       <c r="F39">
-        <v>0.791672</v>
+        <v>9.15249</v>
       </c>
       <c r="G39">
-        <v>0.886118</v>
+        <v>11.0497</v>
       </c>
       <c r="H39">
-        <v>5.43533</v>
+        <v>6.05956</v>
       </c>
       <c r="I39">
-        <v>2.96866</v>
+        <v>12.0391</v>
       </c>
       <c r="J39">
-        <v>16.7335</v>
+        <v>12.2045</v>
       </c>
       <c r="K39">
-        <v>13.5674</v>
+        <v>14.0397</v>
       </c>
       <c r="L39">
-        <v>0.0193478</v>
+        <v>3.0509</v>
       </c>
       <c r="M39">
-        <v>0.00952621</v>
+        <v>1.93525</v>
       </c>
       <c r="N39">
-        <v>0.0101298</v>
+        <v>1.87263</v>
       </c>
       <c r="O39">
-        <v>0.010899</v>
+        <v>1.92022</v>
       </c>
       <c r="P39">
-        <v>0.1322</v>
+        <v>2.06947</v>
       </c>
       <c r="Q39">
-        <v>0.0436796</v>
+        <v>2.11989</v>
       </c>
       <c r="R39">
-        <v>1.06068</v>
+        <v>1.90321</v>
       </c>
       <c r="S39">
-        <v>0.0919534</v>
+        <v>1.93487</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>ENSMUSG00000053522</t>
+          <t>ENSMUSG00000026042</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Lgals7</t>
+          <t>Col5a2</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>chr7:28863852-28866284</t>
+          <t>chr1:45374320-45503282</t>
         </is>
       </c>
       <c r="D40">
-        <v>2.50795</v>
+        <v>3.80296</v>
       </c>
       <c r="E40">
-        <v>1.64901</v>
+        <v>2.23211</v>
       </c>
       <c r="F40">
-        <v>7.33442</v>
+        <v>39.3218</v>
       </c>
       <c r="G40">
-        <v>4.75276</v>
+        <v>47.0322</v>
       </c>
       <c r="H40">
-        <v>23.2863</v>
+        <v>45.1288</v>
       </c>
       <c r="I40">
-        <v>12.7122</v>
+        <v>37.2039</v>
       </c>
       <c r="J40">
-        <v>63.5443</v>
+        <v>42.9932</v>
       </c>
       <c r="K40">
-        <v>23.5985</v>
+        <v>35.6888</v>
       </c>
       <c r="L40">
-        <v>0</v>
+        <v>10.7367</v>
       </c>
       <c r="M40">
-        <v>0</v>
+        <v>8.889849999999999</v>
       </c>
       <c r="N40">
-        <v>0.149153</v>
+        <v>29.6388</v>
       </c>
       <c r="O40">
-        <v>0.08023959999999999</v>
+        <v>25.3509</v>
       </c>
       <c r="P40">
-        <v>1.23348</v>
+        <v>38.8855</v>
       </c>
       <c r="Q40">
-        <v>0.648814</v>
+        <v>26.537</v>
       </c>
       <c r="R40">
-        <v>7.28158</v>
+        <v>91.327</v>
       </c>
       <c r="S40">
-        <v>2.15105</v>
+        <v>46.2436</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>ENSMUSG00000029120</t>
+          <t>ENSMUSG00000031613</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Ppp2r2c</t>
+          <t>Hpgd</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>chr5:36868512-36955078</t>
+          <t>chr8:56294584-56321043</t>
         </is>
       </c>
       <c r="D41">
-        <v>11.639</v>
+        <v>0.151724</v>
       </c>
       <c r="E41">
-        <v>14.9775</v>
+        <v>0.176318</v>
       </c>
       <c r="F41">
-        <v>13.2575</v>
+        <v>0.290486</v>
       </c>
       <c r="G41">
-        <v>7.5193</v>
+        <v>0.166342</v>
       </c>
       <c r="H41">
-        <v>0.37988</v>
+        <v>4.21519</v>
       </c>
       <c r="I41">
-        <v>2.02324</v>
+        <v>1.32181</v>
       </c>
       <c r="J41">
-        <v>0.362558</v>
+        <v>11.4485</v>
       </c>
       <c r="K41">
-        <v>0.414306</v>
+        <v>13.787</v>
       </c>
       <c r="L41">
-        <v>0.0265782</v>
+        <v>0.516467</v>
       </c>
       <c r="M41">
-        <v>0.0491282</v>
+        <v>0.357997</v>
       </c>
       <c r="N41">
-        <v>0.13755</v>
+        <v>0.701628</v>
       </c>
       <c r="O41">
-        <v>0.0591983</v>
+        <v>1.40198</v>
       </c>
       <c r="P41">
-        <v>0.047396</v>
+        <v>2.44065</v>
       </c>
       <c r="Q41">
-        <v>0.0747926</v>
+        <v>1.74404</v>
       </c>
       <c r="R41">
-        <v>0.0358125</v>
+        <v>1.892</v>
       </c>
       <c r="S41">
-        <v>0.0935603</v>
+        <v>2.78782</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>ENSMUSG00000040280</t>
+          <t>ENSMUSG00000045573</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Ndufa4l2</t>
+          <t>Penk</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>chr10:127514966-127517154</t>
+          <t>chr4:4133530-4138819</t>
         </is>
       </c>
       <c r="D42">
-        <v>21.0514</v>
+        <v>2.34968</v>
       </c>
       <c r="E42">
-        <v>11.4906</v>
+        <v>1.63834</v>
       </c>
       <c r="F42">
-        <v>5.83255</v>
+        <v>9.0152</v>
       </c>
       <c r="G42">
-        <v>3.47694</v>
+        <v>9.564719999999999</v>
       </c>
       <c r="H42">
-        <v>0.415672</v>
+        <v>19.1419</v>
       </c>
       <c r="I42">
-        <v>0.977154</v>
+        <v>19.3877</v>
       </c>
       <c r="J42">
-        <v>0.67442</v>
+        <v>36.143</v>
       </c>
       <c r="K42">
-        <v>0.483565</v>
+        <v>20.8089</v>
       </c>
       <c r="L42">
-        <v>4.11031</v>
+        <v>0.624867</v>
       </c>
       <c r="M42">
-        <v>2.84912</v>
+        <v>1.15846</v>
       </c>
       <c r="N42">
-        <v>0.782651</v>
+        <v>0.194034</v>
       </c>
       <c r="O42">
-        <v>0.323879</v>
+        <v>0.08350680000000001</v>
       </c>
       <c r="P42">
-        <v>0.373404</v>
+        <v>0.722069</v>
       </c>
       <c r="Q42">
-        <v>0.196415</v>
+        <v>0.487541</v>
       </c>
       <c r="R42">
-        <v>0.195934</v>
+        <v>1.49029</v>
       </c>
       <c r="S42">
-        <v>0.434125</v>
+        <v>0.304033</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>ENSMUSG00000040856</t>
+          <t>ENSMUSG00000068859</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Dlk1</t>
+          <t>Sp9</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>chr12:109452848-109463336</t>
+          <t>chr2:73271924-73277471</t>
         </is>
       </c>
       <c r="D43">
-        <v>74.11620000000001</v>
+        <v>0.0565687</v>
       </c>
       <c r="E43">
-        <v>58.1046</v>
+        <v>0.09860770000000001</v>
       </c>
       <c r="F43">
-        <v>13.9802</v>
+        <v>2.58384</v>
       </c>
       <c r="G43">
-        <v>8.896000000000001</v>
+        <v>2.17066</v>
       </c>
       <c r="H43">
-        <v>12.2953</v>
+        <v>5.69995</v>
       </c>
       <c r="I43">
-        <v>11.5234</v>
+        <v>6.88692</v>
       </c>
       <c r="J43">
-        <v>2.21918</v>
+        <v>10.8353</v>
       </c>
       <c r="K43">
-        <v>4.63895</v>
+        <v>7.81681</v>
       </c>
       <c r="L43">
-        <v>264.691</v>
+        <v>0.0240699</v>
       </c>
       <c r="M43">
-        <v>200.547</v>
+        <v>0.011123</v>
       </c>
       <c r="N43">
-        <v>16.7102</v>
+        <v>0.0996553</v>
       </c>
       <c r="O43">
-        <v>11.8507</v>
+        <v>0.201043</v>
       </c>
       <c r="P43">
-        <v>4.57408</v>
+        <v>2.0689</v>
       </c>
       <c r="Q43">
-        <v>5.79796</v>
+        <v>0.826357</v>
       </c>
       <c r="R43">
-        <v>2.48673</v>
+        <v>7.25683</v>
       </c>
       <c r="S43">
-        <v>3.74243</v>
+        <v>4.83775</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>ENSMUSG00000025650</t>
+          <t>ENSMUSG00000058145</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Col7a1</t>
+          <t>Adamts17</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>chr9:108953585-108984875</t>
+          <t>chr7:66839734-67153171</t>
         </is>
       </c>
       <c r="D44">
-        <v>0.286851</v>
+        <v>0.925634</v>
       </c>
       <c r="E44">
-        <v>0.352887</v>
+        <v>0.86191</v>
       </c>
       <c r="F44">
-        <v>1.30589</v>
+        <v>9.511340000000001</v>
       </c>
       <c r="G44">
-        <v>3.22066</v>
+        <v>6.46963</v>
       </c>
       <c r="H44">
-        <v>5.30179</v>
+        <v>8.01033</v>
       </c>
       <c r="I44">
-        <v>5.90958</v>
+        <v>4.19215</v>
       </c>
       <c r="J44">
-        <v>16.5185</v>
+        <v>31.4213</v>
       </c>
       <c r="K44">
-        <v>15.8727</v>
+        <v>18.6835</v>
       </c>
       <c r="L44">
-        <v>0.11418</v>
+        <v>1.41671</v>
       </c>
       <c r="M44">
-        <v>0.262008</v>
+        <v>0.983397</v>
       </c>
       <c r="N44">
-        <v>0.718311</v>
+        <v>9.393929999999999</v>
       </c>
       <c r="O44">
-        <v>1.43894</v>
+        <v>6.6222</v>
       </c>
       <c r="P44">
-        <v>0.661429</v>
+        <v>8.05927</v>
       </c>
       <c r="Q44">
-        <v>1.02096</v>
+        <v>5.70049</v>
       </c>
       <c r="R44">
-        <v>1.47985</v>
+        <v>8.885949999999999</v>
       </c>
       <c r="S44">
-        <v>1.29728</v>
+        <v>8.71045</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>ENSMUSG00000024987</t>
+          <t>ENSMUSG00000041559</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Cyp26a1</t>
+          <t>Fmod</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>chr19:37697807-37701528</t>
+          <t>chr1:134037253-134048277</t>
         </is>
       </c>
       <c r="D45">
-        <v>3.3125</v>
+        <v>4.41761</v>
       </c>
       <c r="E45">
-        <v>2.67789</v>
+        <v>2.91671</v>
       </c>
       <c r="F45">
-        <v>15.7566</v>
+        <v>7.70043</v>
       </c>
       <c r="G45">
-        <v>20.0215</v>
+        <v>6.46048</v>
       </c>
       <c r="H45">
-        <v>29.9992</v>
+        <v>18.3598</v>
       </c>
       <c r="I45">
-        <v>44.9446</v>
+        <v>12.231</v>
       </c>
       <c r="J45">
-        <v>35.4233</v>
+        <v>61.6251</v>
       </c>
       <c r="K45">
-        <v>52.5396</v>
+        <v>38.4517</v>
       </c>
       <c r="L45">
-        <v>0.388115</v>
+        <v>0.116081</v>
       </c>
       <c r="M45">
-        <v>0.283187</v>
+        <v>0.0482779</v>
       </c>
       <c r="N45">
-        <v>0.237862</v>
+        <v>0.18924</v>
       </c>
       <c r="O45">
-        <v>0.136493</v>
+        <v>0.0193912</v>
       </c>
       <c r="P45">
-        <v>1.0491</v>
+        <v>0.695531</v>
       </c>
       <c r="Q45">
-        <v>0.448367</v>
+        <v>0.156798</v>
       </c>
       <c r="R45">
-        <v>0</v>
+        <v>1.09097</v>
       </c>
       <c r="S45">
-        <v>0.06534089999999999</v>
+        <v>0.278484</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>ENSMUSG00000063804</t>
+          <t>ENSMUSG00000022636</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Lin28b</t>
+          <t>Alcam</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>chr10:45376619-45470201</t>
+          <t>chr16:52248995-52454074</t>
         </is>
       </c>
       <c r="D46">
-        <v>20.6884</v>
+        <v>6.78006</v>
       </c>
       <c r="E46">
-        <v>28.9126</v>
+        <v>5.68702</v>
       </c>
       <c r="F46">
-        <v>8.002890000000001</v>
+        <v>11.2733</v>
       </c>
       <c r="G46">
-        <v>9.97095</v>
+        <v>16.526</v>
       </c>
       <c r="H46">
-        <v>1.71179</v>
+        <v>35.1858</v>
       </c>
       <c r="I46">
-        <v>5.4486</v>
+        <v>27.9093</v>
       </c>
       <c r="J46">
-        <v>0.795668</v>
+        <v>70.55589999999999</v>
       </c>
       <c r="K46">
-        <v>1.80802</v>
+        <v>71.02500000000001</v>
       </c>
       <c r="L46">
-        <v>38.2688</v>
+        <v>10.5444</v>
       </c>
       <c r="M46">
-        <v>62.6452</v>
+        <v>17.8413</v>
       </c>
       <c r="N46">
-        <v>9.1653</v>
+        <v>1.10611</v>
       </c>
       <c r="O46">
-        <v>10.1805</v>
+        <v>1.58136</v>
       </c>
       <c r="P46">
-        <v>1.2984</v>
+        <v>7.659</v>
       </c>
       <c r="Q46">
-        <v>4.04122</v>
+        <v>4.58924</v>
       </c>
       <c r="R46">
-        <v>0.277789</v>
+        <v>5.94068</v>
       </c>
       <c r="S46">
-        <v>0.922162</v>
+        <v>12.5676</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>ENSMUSG00000000861</t>
+          <t>ENSMUSG00000039238</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Bcl11a</t>
+          <t>Zfp750</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>chr11:24078055-24174123</t>
+          <t>chr11:121510977-121519333</t>
         </is>
       </c>
       <c r="D47">
-        <v>1.73311</v>
+        <v>0.237021</v>
       </c>
       <c r="E47">
-        <v>1.47691</v>
+        <v>0.137721</v>
       </c>
       <c r="F47">
-        <v>13.1521</v>
+        <v>8.924620000000001</v>
       </c>
       <c r="G47">
-        <v>14.3365</v>
+        <v>8.644600000000001</v>
       </c>
       <c r="H47">
-        <v>26.5078</v>
+        <v>5.24173</v>
       </c>
       <c r="I47">
-        <v>18.036</v>
+        <v>9.777520000000001</v>
       </c>
       <c r="J47">
-        <v>31.2316</v>
+        <v>12.7486</v>
       </c>
       <c r="K47">
-        <v>25.7235</v>
+        <v>10.6205</v>
       </c>
       <c r="L47">
-        <v>2.3536</v>
+        <v>0</v>
       </c>
       <c r="M47">
-        <v>1.35255</v>
+        <v>0.015535</v>
       </c>
       <c r="N47">
-        <v>26.8385</v>
+        <v>0.0869902</v>
       </c>
       <c r="O47">
-        <v>32.2516</v>
+        <v>0.112316</v>
       </c>
       <c r="P47">
-        <v>47.7556</v>
+        <v>0.155867</v>
       </c>
       <c r="Q47">
-        <v>44.098</v>
+        <v>0.113522</v>
       </c>
       <c r="R47">
-        <v>49.5601</v>
+        <v>0.0113244</v>
       </c>
       <c r="S47">
-        <v>44.1029</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>ENSMUSG00000029026</t>
+          <t>ENSMUSG00000056632</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Trp73</t>
+          <t>Dsg3</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>chr4:154056252-154140208</t>
+          <t>chr18:20510303-20541310</t>
         </is>
       </c>
       <c r="D48">
-        <v>0.460741</v>
+        <v>0</v>
       </c>
       <c r="E48">
-        <v>0.6037360000000001</v>
+        <v>0.0120393</v>
       </c>
       <c r="F48">
-        <v>3.19744</v>
+        <v>0.697051</v>
       </c>
       <c r="G48">
-        <v>3.72328</v>
+        <v>0.708743</v>
       </c>
       <c r="H48">
-        <v>6.14977</v>
+        <v>3.53974</v>
       </c>
       <c r="I48">
-        <v>6.8901</v>
+        <v>2.9576</v>
       </c>
       <c r="J48">
-        <v>20.4883</v>
+        <v>7.3241</v>
       </c>
       <c r="K48">
-        <v>16.1337</v>
+        <v>8.479419999999999</v>
       </c>
       <c r="L48">
         <v>0</v>
       </c>
       <c r="M48">
-        <v>0.0661514</v>
+        <v>0</v>
       </c>
       <c r="N48">
-        <v>0.0846512</v>
+        <v>0.013688</v>
       </c>
       <c r="O48">
-        <v>0.0319454</v>
+        <v>0</v>
       </c>
       <c r="P48">
-        <v>0.364146</v>
+        <v>0.0660314</v>
       </c>
       <c r="Q48">
-        <v>0.0969068</v>
+        <v>0.0297714</v>
       </c>
       <c r="R48">
-        <v>0.0770192</v>
+        <v>0.008909540000000001</v>
       </c>
       <c r="S48">
-        <v>0.0795358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>ENSMUSG00000006411</t>
+          <t>ENSMUSG00000033965</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Nectin4</t>
+          <t>Slc16a2</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>chr1:171370098-171388598</t>
+          <t>chrX:103697413-103821983</t>
         </is>
       </c>
       <c r="D49">
-        <v>2.46049</v>
+        <v>1.70152</v>
       </c>
       <c r="E49">
-        <v>1.70652</v>
+        <v>1.3222</v>
       </c>
       <c r="F49">
-        <v>19.7275</v>
+        <v>4.05388</v>
       </c>
       <c r="G49">
-        <v>26.2674</v>
+        <v>4.90863</v>
       </c>
       <c r="H49">
-        <v>20.5808</v>
+        <v>21.3109</v>
       </c>
       <c r="I49">
-        <v>32.7142</v>
+        <v>8.54522</v>
       </c>
       <c r="J49">
-        <v>36.0015</v>
+        <v>19.785</v>
       </c>
       <c r="K49">
-        <v>32.8735</v>
+        <v>16.7383</v>
       </c>
       <c r="L49">
-        <v>0.0791998</v>
+        <v>1.24737</v>
       </c>
       <c r="M49">
-        <v>0.0156789</v>
+        <v>0.74975</v>
       </c>
       <c r="N49">
-        <v>0.28592</v>
+        <v>26.9235</v>
       </c>
       <c r="O49">
-        <v>0.151197</v>
+        <v>21.7115</v>
       </c>
       <c r="P49">
-        <v>0.520553</v>
+        <v>23.1367</v>
       </c>
       <c r="Q49">
-        <v>0.20729</v>
+        <v>18.837</v>
       </c>
       <c r="R49">
-        <v>0.0563941</v>
+        <v>29.945</v>
       </c>
       <c r="S49">
-        <v>0</v>
+        <v>22.5728</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>ENSMUSG00000050315</t>
+          <t>ENSMUSG00000000739</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Synpo2</t>
+          <t>Sult5a1</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>chr3:123076518-123236147</t>
+          <t>chr8:123140191-123158270</t>
         </is>
       </c>
       <c r="D50">
-        <v>0.401943</v>
+        <v>2.1615</v>
       </c>
       <c r="E50">
-        <v>0.450496</v>
+        <v>0.420834</v>
       </c>
       <c r="F50">
-        <v>2.38879</v>
+        <v>0.637849</v>
       </c>
       <c r="G50">
-        <v>1.69887</v>
+        <v>2.14087</v>
       </c>
       <c r="H50">
-        <v>7.36555</v>
+        <v>6.79704</v>
       </c>
       <c r="I50">
-        <v>3.40951</v>
+        <v>4.37266</v>
       </c>
       <c r="J50">
-        <v>19.347</v>
+        <v>24.2901</v>
       </c>
       <c r="K50">
-        <v>12.4175</v>
+        <v>12.1336</v>
       </c>
       <c r="L50">
-        <v>0.0635474</v>
+        <v>0.488405</v>
       </c>
       <c r="M50">
-        <v>0.108037</v>
+        <v>0.62113</v>
       </c>
       <c r="N50">
-        <v>1.27391</v>
+        <v>0.25717</v>
       </c>
       <c r="O50">
-        <v>2.02562</v>
+        <v>0.624042</v>
       </c>
       <c r="P50">
-        <v>4.20119</v>
+        <v>0.653806</v>
       </c>
       <c r="Q50">
-        <v>1.98968</v>
+        <v>0.611043</v>
       </c>
       <c r="R50">
-        <v>3.40883</v>
+        <v>1.81736</v>
       </c>
       <c r="S50">
-        <v>4.87157</v>
+        <v>1.2192</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>ENSMUSG00000059898</t>
+          <t>ENSMUSG00000007379</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Dsc3</t>
+          <t>Dennd2c</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>chr18:19960929-20002351</t>
+          <t>chr3:103102603-103169769</t>
         </is>
       </c>
       <c r="D51">
-        <v>0.289994</v>
+        <v>0.06977510000000001</v>
       </c>
       <c r="E51">
-        <v>0.0741928</v>
+        <v>0.1115</v>
       </c>
       <c r="F51">
-        <v>1.10846</v>
+        <v>1.55702</v>
       </c>
       <c r="G51">
-        <v>0.947095</v>
+        <v>2.62867</v>
       </c>
       <c r="H51">
-        <v>3.96032</v>
+        <v>2.65115</v>
       </c>
       <c r="I51">
-        <v>3.32236</v>
+        <v>4.37337</v>
       </c>
       <c r="J51">
-        <v>18.3511</v>
+        <v>8.98324</v>
       </c>
       <c r="K51">
-        <v>8.131130000000001</v>
+        <v>9.64809</v>
       </c>
       <c r="L51">
-        <v>0.0271658</v>
+        <v>0.323672</v>
       </c>
       <c r="M51">
-        <v>0</v>
+        <v>0.51613</v>
       </c>
       <c r="N51">
-        <v>0.0384848</v>
+        <v>0.502562</v>
       </c>
       <c r="O51">
-        <v>0.113448</v>
+        <v>0.855609</v>
       </c>
       <c r="P51">
-        <v>1.61309</v>
+        <v>0.876953</v>
       </c>
       <c r="Q51">
-        <v>0.722698</v>
+        <v>0.994816</v>
       </c>
       <c r="R51">
-        <v>0.579986</v>
+        <v>1.31582</v>
       </c>
       <c r="S51">
-        <v>1.76789</v>
+        <v>1.9346</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>ENSMUSG00000022382</t>
+          <t>ENSMUSG00000050966</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Wnt7b</t>
+          <t>Lin28a</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>chr15:85535436-85582473</t>
+          <t>chr4:134003329-134018841</t>
         </is>
       </c>
       <c r="D52">
-        <v>12.1875</v>
+        <v>88.4691</v>
       </c>
       <c r="E52">
-        <v>9.45965</v>
+        <v>109.108</v>
       </c>
       <c r="F52">
-        <v>52.0168</v>
+        <v>9.85613</v>
       </c>
       <c r="G52">
-        <v>38.9484</v>
+        <v>9.56878</v>
       </c>
       <c r="H52">
-        <v>73.3886</v>
+        <v>1.65143</v>
       </c>
       <c r="I52">
-        <v>71.342</v>
+        <v>5.36827</v>
       </c>
       <c r="J52">
-        <v>161.432</v>
+        <v>0.137431</v>
       </c>
       <c r="K52">
-        <v>100.208</v>
+        <v>1.35302</v>
       </c>
       <c r="L52">
-        <v>0.110596</v>
+        <v>81.07250000000001</v>
       </c>
       <c r="M52">
-        <v>0.0398323</v>
+        <v>108.919</v>
       </c>
       <c r="N52">
-        <v>0.924023</v>
+        <v>2.96117</v>
       </c>
       <c r="O52">
-        <v>0.290369</v>
+        <v>2.47942</v>
       </c>
       <c r="P52">
-        <v>2.04709</v>
+        <v>0.0442237</v>
       </c>
       <c r="Q52">
-        <v>1.15121</v>
+        <v>0.08723309999999999</v>
       </c>
       <c r="R52">
-        <v>0.29275</v>
+        <v>0.0104423</v>
       </c>
       <c r="S52">
-        <v>0.110902</v>
+        <v>0.0165263</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>ENSMUSG00000001819</t>
+          <t>ENSMUSG00000032394</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Hoxd13</t>
+          <t>Igdcc3</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>chr2:74668309-74671599</t>
+          <t>chr9:65141188-65185872</t>
         </is>
       </c>
       <c r="D53">
-        <v>0.342799</v>
+        <v>138.67</v>
       </c>
       <c r="E53">
-        <v>0.298775</v>
+        <v>100.362</v>
       </c>
       <c r="F53">
-        <v>6.94754</v>
+        <v>89.9378</v>
       </c>
       <c r="G53">
-        <v>12.267</v>
+        <v>51.3037</v>
       </c>
       <c r="H53">
-        <v>94.6536</v>
+        <v>4.42878</v>
       </c>
       <c r="I53">
-        <v>13.1634</v>
+        <v>13.4018</v>
       </c>
       <c r="J53">
-        <v>5.61099</v>
+        <v>0.680704</v>
       </c>
       <c r="K53">
-        <v>8.66283</v>
+        <v>1.88373</v>
       </c>
       <c r="L53">
-        <v>3.07766</v>
+        <v>300.355</v>
       </c>
       <c r="M53">
-        <v>2.70963</v>
+        <v>294.417</v>
       </c>
       <c r="N53">
-        <v>129.298</v>
+        <v>189.801</v>
       </c>
       <c r="O53">
-        <v>265.053</v>
+        <v>91.221</v>
       </c>
       <c r="P53">
-        <v>318.03</v>
+        <v>1.98391</v>
       </c>
       <c r="Q53">
-        <v>376.63</v>
+        <v>7.50832</v>
       </c>
       <c r="R53">
-        <v>202.223</v>
+        <v>0.47699</v>
       </c>
       <c r="S53">
-        <v>395.838</v>
+        <v>0.530118</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>ENSMUSG00000026413</t>
+          <t>ENSMUSG00000052217</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Pkp1</t>
+          <t>Hbb-bh1</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>chr1:135871394-135919207</t>
+          <t>chr7:103841636-103843164</t>
         </is>
       </c>
       <c r="D54">
-        <v>1.16674</v>
+        <v>33.047</v>
       </c>
       <c r="E54">
-        <v>1.59951</v>
+        <v>240.348</v>
       </c>
       <c r="F54">
-        <v>7.03048</v>
+        <v>22.217</v>
       </c>
       <c r="G54">
-        <v>10.0252</v>
+        <v>54.5293</v>
       </c>
       <c r="H54">
-        <v>12.11</v>
+        <v>1.78487</v>
       </c>
       <c r="I54">
-        <v>15.4057</v>
+        <v>4.55959</v>
       </c>
       <c r="J54">
-        <v>27.3281</v>
+        <v>1.99472</v>
       </c>
       <c r="K54">
-        <v>22.7668</v>
+        <v>0.644687</v>
       </c>
       <c r="L54">
-        <v>0.0119804</v>
+        <v>1259.15</v>
       </c>
       <c r="M54">
-        <v>0.0512294</v>
+        <v>836.026</v>
       </c>
       <c r="N54">
-        <v>0.0602389</v>
+        <v>1328.48</v>
       </c>
       <c r="O54">
-        <v>0.0200132</v>
+        <v>1041.84</v>
       </c>
       <c r="P54">
-        <v>0.298788</v>
+        <v>400.596</v>
       </c>
       <c r="Q54">
-        <v>0.130971</v>
+        <v>513.7430000000001</v>
       </c>
       <c r="R54">
-        <v>0.0392275</v>
+        <v>70.0363</v>
       </c>
       <c r="S54">
-        <v>0.23572</v>
+        <v>151.851</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>ENSMUSG00000021281</t>
+          <t>ENSMUSG00000092035</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Tnfaip2</t>
+          <t>Peg10</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>chr12:111442468-111455018</t>
+          <t>chr6:4747305-4760517</t>
         </is>
       </c>
       <c r="D55">
-        <v>0.294162</v>
+        <v>155.627</v>
       </c>
       <c r="E55">
-        <v>0.131466</v>
+        <v>300.493</v>
       </c>
       <c r="F55">
-        <v>9.15249</v>
+        <v>22.342</v>
       </c>
       <c r="G55">
-        <v>11.0497</v>
+        <v>27.812</v>
       </c>
       <c r="H55">
-        <v>6.05956</v>
+        <v>10.4649</v>
       </c>
       <c r="I55">
-        <v>12.0391</v>
+        <v>11.3882</v>
       </c>
       <c r="J55">
-        <v>12.2045</v>
+        <v>2.9848</v>
       </c>
       <c r="K55">
-        <v>14.0397</v>
+        <v>5.42178</v>
       </c>
       <c r="L55">
-        <v>3.0509</v>
+        <v>150.36</v>
       </c>
       <c r="M55">
-        <v>1.93525</v>
+        <v>304.77</v>
       </c>
       <c r="N55">
-        <v>1.87263</v>
+        <v>81.09869999999999</v>
       </c>
       <c r="O55">
-        <v>1.92022</v>
+        <v>97.4571</v>
       </c>
       <c r="P55">
-        <v>2.06947</v>
+        <v>34.89</v>
       </c>
       <c r="Q55">
-        <v>2.11989</v>
+        <v>66.0727</v>
       </c>
       <c r="R55">
-        <v>1.90321</v>
+        <v>12.3168</v>
       </c>
       <c r="S55">
-        <v>1.93487</v>
+        <v>30.0879</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>ENSMUSG00000026042</t>
+          <t>ENSMUSG00000036030</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Col5a2</t>
+          <t>Prtg</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>chr1:45374320-45503282</t>
+          <t>chr9:72806873-72917291</t>
         </is>
       </c>
       <c r="D56">
-        <v>3.80296</v>
+        <v>26.2757</v>
       </c>
       <c r="E56">
-        <v>2.23211</v>
+        <v>32.3516</v>
       </c>
       <c r="F56">
-        <v>39.3218</v>
+        <v>3.35158</v>
       </c>
       <c r="G56">
-        <v>47.0322</v>
+        <v>3.3969</v>
       </c>
       <c r="H56">
-        <v>45.1288</v>
+        <v>0.37424</v>
       </c>
       <c r="I56">
-        <v>37.2039</v>
+        <v>1.29073</v>
       </c>
       <c r="J56">
-        <v>42.9932</v>
+        <v>0.137715</v>
       </c>
       <c r="K56">
-        <v>35.6888</v>
+        <v>0.499885</v>
       </c>
       <c r="L56">
-        <v>10.7367</v>
+        <v>21.1017</v>
       </c>
       <c r="M56">
-        <v>8.889849999999999</v>
+        <v>35.8127</v>
       </c>
       <c r="N56">
-        <v>29.6388</v>
+        <v>2.47714</v>
       </c>
       <c r="O56">
-        <v>25.3509</v>
+        <v>2.4933</v>
       </c>
       <c r="P56">
-        <v>38.8855</v>
+        <v>0.207564</v>
       </c>
       <c r="Q56">
-        <v>26.537</v>
+        <v>0.648403</v>
       </c>
       <c r="R56">
-        <v>91.327</v>
+        <v>0.0440101</v>
       </c>
       <c r="S56">
-        <v>46.2436</v>
+        <v>0.183627</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>ENSMUSG00000031613</t>
+          <t>ENSMUSG00000055609</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Hpgd</t>
+          <t>Hba-x</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>chr8:56294584-56321043</t>
+          <t>chr11:32276399-32278116</t>
         </is>
       </c>
       <c r="D57">
-        <v>0.151724</v>
+        <v>37.3918</v>
       </c>
       <c r="E57">
-        <v>0.176318</v>
+        <v>289.501</v>
       </c>
       <c r="F57">
-        <v>0.290486</v>
+        <v>27.0503</v>
       </c>
       <c r="G57">
-        <v>0.166342</v>
+        <v>80.57769999999999</v>
       </c>
       <c r="H57">
-        <v>4.21519</v>
+        <v>5.01291</v>
       </c>
       <c r="I57">
-        <v>1.32181</v>
+        <v>11.0448</v>
       </c>
       <c r="J57">
-        <v>11.4485</v>
+        <v>8.42681</v>
       </c>
       <c r="K57">
-        <v>13.787</v>
+        <v>2.34314</v>
       </c>
       <c r="L57">
-        <v>0.516467</v>
+        <v>1369.86</v>
       </c>
       <c r="M57">
-        <v>0.357997</v>
+        <v>1021.83</v>
       </c>
       <c r="N57">
-        <v>0.701628</v>
+        <v>2003.07</v>
       </c>
       <c r="O57">
-        <v>1.40198</v>
+        <v>1590.96</v>
       </c>
       <c r="P57">
-        <v>2.44065</v>
+        <v>1269.92</v>
       </c>
       <c r="Q57">
-        <v>1.74404</v>
+        <v>1380.82</v>
       </c>
       <c r="R57">
-        <v>1.892</v>
+        <v>558.727</v>
       </c>
       <c r="S57">
-        <v>2.78782</v>
+        <v>576.841</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>ENSMUSG00000004885</t>
+          <t>ENSMUSG00000022485</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Crabp2</t>
+          <t>Hoxc5</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>chr3:87948665-87953376</t>
+          <t>chr15:103013814-103017429</t>
         </is>
       </c>
       <c r="D58">
-        <v>156.703</v>
+        <v>35.8173</v>
       </c>
       <c r="E58">
-        <v>146.247</v>
+        <v>35.972</v>
       </c>
       <c r="F58">
-        <v>56.1879</v>
+        <v>8.195510000000001</v>
       </c>
       <c r="G58">
-        <v>43.3612</v>
+        <v>8.830550000000001</v>
       </c>
       <c r="H58">
-        <v>51.4061</v>
+        <v>1.58179</v>
       </c>
       <c r="I58">
-        <v>15.7461</v>
+        <v>4.64449</v>
       </c>
       <c r="J58">
-        <v>15.084</v>
+        <v>0.570443</v>
       </c>
       <c r="K58">
-        <v>10.2482</v>
+        <v>2.04733</v>
       </c>
       <c r="L58">
-        <v>347.273</v>
+        <v>16.9873</v>
       </c>
       <c r="M58">
-        <v>291.385</v>
+        <v>17.4521</v>
       </c>
       <c r="N58">
-        <v>270.341</v>
+        <v>0.173135</v>
       </c>
       <c r="O58">
-        <v>198.983</v>
+        <v>0.206981</v>
       </c>
       <c r="P58">
-        <v>201.206</v>
+        <v>0.119315</v>
       </c>
       <c r="Q58">
-        <v>154.551</v>
+        <v>0.06276130000000001</v>
       </c>
       <c r="R58">
-        <v>244.763</v>
+        <v>0</v>
       </c>
       <c r="S58">
-        <v>157.66</v>
+        <v>0.0198169</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>ENSMUSG00000045573</t>
+          <t>ENSMUSG00000024619</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Penk</t>
+          <t>Cdx1</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>chr4:4133530-4138819</t>
+          <t>chr18:61018861-61036199</t>
         </is>
       </c>
       <c r="D59">
-        <v>2.34968</v>
+        <v>14.8347</v>
       </c>
       <c r="E59">
-        <v>1.63834</v>
+        <v>13.6785</v>
       </c>
       <c r="F59">
-        <v>9.0152</v>
+        <v>1.83582</v>
       </c>
       <c r="G59">
-        <v>9.564719999999999</v>
+        <v>0.671888</v>
       </c>
       <c r="H59">
-        <v>19.1419</v>
+        <v>0.141177</v>
       </c>
       <c r="I59">
-        <v>19.3877</v>
+        <v>0.0325951</v>
       </c>
       <c r="J59">
-        <v>36.143</v>
+        <v>0</v>
       </c>
       <c r="K59">
-        <v>20.8089</v>
+        <v>0</v>
       </c>
       <c r="L59">
-        <v>0.624867</v>
+        <v>22.2891</v>
       </c>
       <c r="M59">
-        <v>1.15846</v>
+        <v>18.1613</v>
       </c>
       <c r="N59">
-        <v>0.194034</v>
+        <v>1.18887</v>
       </c>
       <c r="O59">
-        <v>0.08350680000000001</v>
+        <v>0.553149</v>
       </c>
       <c r="P59">
-        <v>0.722069</v>
+        <v>0.177147</v>
       </c>
       <c r="Q59">
-        <v>0.487541</v>
+        <v>0.209658</v>
       </c>
       <c r="R59">
-        <v>1.49029</v>
+        <v>0.188231</v>
       </c>
       <c r="S59">
-        <v>0.304033</v>
+        <v>0.231699</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>ENSMUSG00000068859</t>
+          <t>ENSMUSG00000024247</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Sp9</t>
+          <t>Pkdcc</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>chr2:73271924-73277471</t>
+          <t>chr17:83215291-83225070</t>
         </is>
       </c>
       <c r="D60">
-        <v>0.0565687</v>
+        <v>31.2262</v>
       </c>
       <c r="E60">
-        <v>0.09860770000000001</v>
+        <v>23.8571</v>
       </c>
       <c r="F60">
-        <v>2.58384</v>
+        <v>5.85786</v>
       </c>
       <c r="G60">
-        <v>2.17066</v>
+        <v>5.3982</v>
       </c>
       <c r="H60">
-        <v>5.69995</v>
+        <v>1.34308</v>
       </c>
       <c r="I60">
-        <v>6.88692</v>
+        <v>2.86982</v>
       </c>
       <c r="J60">
-        <v>10.8353</v>
+        <v>0.658094</v>
       </c>
       <c r="K60">
-        <v>7.81681</v>
+        <v>1.00264</v>
       </c>
       <c r="L60">
-        <v>0.0240699</v>
+        <v>180.121</v>
       </c>
       <c r="M60">
-        <v>0.011123</v>
+        <v>185.017</v>
       </c>
       <c r="N60">
-        <v>0.0996553</v>
+        <v>3.28753</v>
       </c>
       <c r="O60">
-        <v>0.201043</v>
+        <v>4.68275</v>
       </c>
       <c r="P60">
-        <v>2.0689</v>
+        <v>0.312834</v>
       </c>
       <c r="Q60">
-        <v>0.826357</v>
+        <v>0.887964</v>
       </c>
       <c r="R60">
-        <v>7.25683</v>
+        <v>0.758733</v>
       </c>
       <c r="S60">
-        <v>4.83775</v>
+        <v>0.253939</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>ENSMUSG00000058145</t>
+          <t>ENSMUSG00000063972</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Adamts17</t>
+          <t>Nr6a1</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>chr7:66839734-67153171</t>
+          <t>chr2:38723369-38927688</t>
         </is>
       </c>
       <c r="D61">
-        <v>0.925634</v>
+        <v>19.8387</v>
       </c>
       <c r="E61">
-        <v>0.86191</v>
+        <v>27.4237</v>
       </c>
       <c r="F61">
-        <v>9.511340000000001</v>
+        <v>3.25816</v>
       </c>
       <c r="G61">
-        <v>6.46963</v>
+        <v>3.62896</v>
       </c>
       <c r="H61">
-        <v>8.01033</v>
+        <v>0.384514</v>
       </c>
       <c r="I61">
-        <v>4.19215</v>
+        <v>1.41518</v>
       </c>
       <c r="J61">
-        <v>31.4213</v>
+        <v>0.5296</v>
       </c>
       <c r="K61">
-        <v>18.6835</v>
+        <v>1.41332</v>
       </c>
       <c r="L61">
-        <v>1.41671</v>
+        <v>12.3095</v>
       </c>
       <c r="M61">
-        <v>0.983397</v>
+        <v>22.2005</v>
       </c>
       <c r="N61">
-        <v>9.393929999999999</v>
+        <v>0.53178</v>
       </c>
       <c r="O61">
-        <v>6.6222</v>
+        <v>0.621201</v>
       </c>
       <c r="P61">
-        <v>8.05927</v>
+        <v>0.105493</v>
       </c>
       <c r="Q61">
-        <v>5.70049</v>
+        <v>0.332953</v>
       </c>
       <c r="R61">
-        <v>8.885949999999999</v>
+        <v>0.151829</v>
       </c>
       <c r="S61">
-        <v>8.71045</v>
+        <v>0.18726</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>ENSMUSG00000041559</t>
+          <t>ENSMUSG00000036596</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Fmod</t>
+          <t>Cpz</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>chr1:134037253-134048277</t>
+          <t>chr5:35502217-35525698</t>
         </is>
       </c>
       <c r="D62">
-        <v>4.41761</v>
+        <v>44.4595</v>
       </c>
       <c r="E62">
-        <v>2.91671</v>
+        <v>31.5289</v>
       </c>
       <c r="F62">
-        <v>7.70043</v>
+        <v>27.6564</v>
       </c>
       <c r="G62">
-        <v>6.46048</v>
+        <v>20.825</v>
       </c>
       <c r="H62">
-        <v>18.3598</v>
+        <v>3.99324</v>
       </c>
       <c r="I62">
-        <v>12.231</v>
+        <v>11.637</v>
       </c>
       <c r="J62">
-        <v>61.6251</v>
+        <v>1.08933</v>
       </c>
       <c r="K62">
-        <v>38.4517</v>
+        <v>2.56506</v>
       </c>
       <c r="L62">
-        <v>0.116081</v>
+        <v>0.403311</v>
       </c>
       <c r="M62">
-        <v>0.0482779</v>
+        <v>0.246013</v>
       </c>
       <c r="N62">
-        <v>0.18924</v>
+        <v>0.363181</v>
       </c>
       <c r="O62">
-        <v>0.0193912</v>
+        <v>0.188643</v>
       </c>
       <c r="P62">
-        <v>0.695531</v>
+        <v>0.138098</v>
       </c>
       <c r="Q62">
-        <v>0.156798</v>
+        <v>0.0272385</v>
       </c>
       <c r="R62">
-        <v>1.09097</v>
+        <v>0.0326061</v>
       </c>
       <c r="S62">
-        <v>0.278484</v>
+        <v>0.265397</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>ENSMUSG00000022636</t>
+          <t>ENSMUSG00000071192</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Alcam</t>
+          <t>Wfikkn1</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>chr16:52248995-52454074</t>
+          <t>chr17:25877629-25880305</t>
         </is>
       </c>
       <c r="D63">
-        <v>6.78006</v>
+        <v>14.5227</v>
       </c>
       <c r="E63">
-        <v>5.68702</v>
+        <v>14.7109</v>
       </c>
       <c r="F63">
-        <v>11.2733</v>
+        <v>0.493766</v>
       </c>
       <c r="G63">
-        <v>16.526</v>
+        <v>0.36743</v>
       </c>
       <c r="H63">
-        <v>35.1858</v>
+        <v>0.267254</v>
       </c>
       <c r="I63">
-        <v>27.9093</v>
+        <v>0.305951</v>
       </c>
       <c r="J63">
-        <v>70.55589999999999</v>
+        <v>0.0561132</v>
       </c>
       <c r="K63">
-        <v>71.02500000000001</v>
+        <v>0.227991</v>
       </c>
       <c r="L63">
-        <v>10.5444</v>
+        <v>8.446429999999999</v>
       </c>
       <c r="M63">
-        <v>17.8413</v>
+        <v>5.9799</v>
       </c>
       <c r="N63">
-        <v>1.10611</v>
+        <v>0.22708</v>
       </c>
       <c r="O63">
-        <v>1.58136</v>
+        <v>0.213783</v>
       </c>
       <c r="P63">
-        <v>7.659</v>
+        <v>0.312999</v>
       </c>
       <c r="Q63">
-        <v>4.58924</v>
+        <v>0.453099</v>
       </c>
       <c r="R63">
-        <v>5.94068</v>
+        <v>0.0554271</v>
       </c>
       <c r="S63">
-        <v>12.5676</v>
+        <v>0.233921</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>ENSMUSG00000033737</t>
+          <t>ENSMUSG00000029120</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Fndc3c1</t>
+          <t>Ppp2r2c</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>chrX:106420040-106485401</t>
+          <t>chr5:36868512-36955078</t>
         </is>
       </c>
       <c r="D64">
-        <v>33.5502</v>
+        <v>11.639</v>
       </c>
       <c r="E64">
-        <v>44.5331</v>
+        <v>14.9775</v>
       </c>
       <c r="F64">
-        <v>12.6464</v>
+        <v>13.2575</v>
       </c>
       <c r="G64">
-        <v>16.0938</v>
+        <v>7.5193</v>
       </c>
       <c r="H64">
-        <v>11.7674</v>
+        <v>0.37988</v>
       </c>
       <c r="I64">
-        <v>10.2372</v>
+        <v>2.02324</v>
       </c>
       <c r="J64">
-        <v>1.42611</v>
+        <v>0.362558</v>
       </c>
       <c r="K64">
-        <v>3.52604</v>
+        <v>0.414306</v>
       </c>
       <c r="L64">
-        <v>61.459</v>
+        <v>0.0265782</v>
       </c>
       <c r="M64">
-        <v>129.388</v>
+        <v>0.0491282</v>
       </c>
       <c r="N64">
-        <v>44.8527</v>
+        <v>0.13755</v>
       </c>
       <c r="O64">
-        <v>59.7795</v>
+        <v>0.0591983</v>
       </c>
       <c r="P64">
-        <v>22.5691</v>
+        <v>0.047396</v>
       </c>
       <c r="Q64">
-        <v>42.6603</v>
+        <v>0.0747926</v>
       </c>
       <c r="R64">
-        <v>15.6726</v>
+        <v>0.0358125</v>
       </c>
       <c r="S64">
-        <v>28.4881</v>
+        <v>0.0935603</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>ENSMUSG00000032291</t>
+          <t>ENSMUSG00000040280</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Crabp1</t>
+          <t>Ndufa4l2</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>chr9:54764747-54773110</t>
+          <t>chr10:127514966-127517154</t>
         </is>
       </c>
       <c r="D65">
-        <v>182.545</v>
+        <v>21.0514</v>
       </c>
       <c r="E65">
-        <v>141.897</v>
+        <v>11.4906</v>
       </c>
       <c r="F65">
-        <v>148.652</v>
+        <v>5.83255</v>
       </c>
       <c r="G65">
-        <v>107.094</v>
+        <v>3.47694</v>
       </c>
       <c r="H65">
-        <v>40.9714</v>
+        <v>0.415672</v>
       </c>
       <c r="I65">
-        <v>42.461</v>
+        <v>0.977154</v>
       </c>
       <c r="J65">
-        <v>16.0318</v>
+        <v>0.67442</v>
       </c>
       <c r="K65">
-        <v>14.8532</v>
+        <v>0.483565</v>
       </c>
       <c r="L65">
-        <v>410.447</v>
+        <v>4.11031</v>
       </c>
       <c r="M65">
-        <v>348.02</v>
+        <v>2.84912</v>
       </c>
       <c r="N65">
-        <v>294.369</v>
+        <v>0.782651</v>
       </c>
       <c r="O65">
-        <v>158.192</v>
+        <v>0.323879</v>
       </c>
       <c r="P65">
-        <v>64.6978</v>
+        <v>0.373404</v>
       </c>
       <c r="Q65">
-        <v>66.1065</v>
+        <v>0.196415</v>
       </c>
       <c r="R65">
-        <v>69.9606</v>
+        <v>0.195934</v>
       </c>
       <c r="S65">
-        <v>40.3739</v>
+        <v>0.434125</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>ENSMUSG00000039238</t>
+          <t>ENSMUSG00000040856</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Zfp750</t>
+          <t>Dlk1</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>chr11:121510977-121519333</t>
+          <t>chr12:109452848-109463336</t>
         </is>
       </c>
       <c r="D66">
-        <v>0.237021</v>
+        <v>74.11620000000001</v>
       </c>
       <c r="E66">
-        <v>0.137721</v>
+        <v>58.1046</v>
       </c>
       <c r="F66">
-        <v>8.924620000000001</v>
+        <v>13.9802</v>
       </c>
       <c r="G66">
-        <v>8.644600000000001</v>
+        <v>8.896000000000001</v>
       </c>
       <c r="H66">
-        <v>5.24173</v>
+        <v>12.2953</v>
       </c>
       <c r="I66">
-        <v>9.777520000000001</v>
+        <v>11.5234</v>
       </c>
       <c r="J66">
-        <v>12.7486</v>
+        <v>2.21918</v>
       </c>
       <c r="K66">
-        <v>10.6205</v>
+        <v>4.63895</v>
       </c>
       <c r="L66">
-        <v>0</v>
+        <v>264.691</v>
       </c>
       <c r="M66">
-        <v>0.015535</v>
+        <v>200.547</v>
       </c>
       <c r="N66">
-        <v>0.0869902</v>
+        <v>16.7102</v>
       </c>
       <c r="O66">
-        <v>0.112316</v>
+        <v>11.8507</v>
       </c>
       <c r="P66">
-        <v>0.155867</v>
+        <v>4.57408</v>
       </c>
       <c r="Q66">
-        <v>0.113522</v>
+        <v>5.79796</v>
       </c>
       <c r="R66">
-        <v>0.0113244</v>
+        <v>2.48673</v>
       </c>
       <c r="S66">
-        <v>0</v>
+        <v>3.74243</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>ENSMUSG00000001473</t>
+          <t>ENSMUSG00000063804</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Tubb6</t>
+          <t>Lin28b</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>chr18:67390716-67402748</t>
+          <t>chr10:45376619-45470201</t>
         </is>
       </c>
       <c r="D67">
-        <v>57.6974</v>
+        <v>20.6884</v>
       </c>
       <c r="E67">
-        <v>41.0408</v>
+        <v>28.9126</v>
       </c>
       <c r="F67">
-        <v>155.503</v>
+        <v>8.002890000000001</v>
       </c>
       <c r="G67">
-        <v>100.191</v>
+        <v>9.97095</v>
       </c>
       <c r="H67">
-        <v>14.6842</v>
+        <v>1.71179</v>
       </c>
       <c r="I67">
-        <v>34.0235</v>
+        <v>5.4486</v>
       </c>
       <c r="J67">
-        <v>4.11236</v>
+        <v>0.795668</v>
       </c>
       <c r="K67">
-        <v>4.04865</v>
+        <v>1.80802</v>
       </c>
       <c r="L67">
-        <v>62.1898</v>
+        <v>38.2688</v>
       </c>
       <c r="M67">
-        <v>42.9792</v>
+        <v>62.6452</v>
       </c>
       <c r="N67">
-        <v>24.8189</v>
+        <v>9.1653</v>
       </c>
       <c r="O67">
-        <v>19.2142</v>
+        <v>10.1805</v>
       </c>
       <c r="P67">
-        <v>20.6437</v>
+        <v>1.2984</v>
       </c>
       <c r="Q67">
-        <v>17.6456</v>
+        <v>4.04122</v>
       </c>
       <c r="R67">
-        <v>13.9569</v>
+        <v>0.277789</v>
       </c>
       <c r="S67">
-        <v>9.26399</v>
+        <v>0.922162</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>ENSMUSG00000042190</t>
+          <t>ENSMUSG00000004885</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Cmklr1</t>
+          <t>Crabp2</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>chr5:113612353-113650426</t>
+          <t>chr3:87948665-87953376</t>
         </is>
       </c>
       <c r="D68">
-        <v>8.403040000000001</v>
+        <v>156.703</v>
       </c>
       <c r="E68">
-        <v>8.87696</v>
+        <v>146.247</v>
       </c>
       <c r="F68">
-        <v>1.52375</v>
+        <v>56.1879</v>
       </c>
       <c r="G68">
-        <v>0.800508</v>
+        <v>43.3612</v>
       </c>
       <c r="H68">
-        <v>0.330782</v>
+        <v>51.4061</v>
       </c>
       <c r="I68">
-        <v>0.316678</v>
+        <v>15.7461</v>
       </c>
       <c r="J68">
-        <v>0.0771411</v>
+        <v>15.084</v>
       </c>
       <c r="K68">
-        <v>0.0979476</v>
+        <v>10.2482</v>
       </c>
       <c r="L68">
-        <v>3.66329</v>
+        <v>347.273</v>
       </c>
       <c r="M68">
-        <v>5.32046</v>
+        <v>291.385</v>
       </c>
       <c r="N68">
-        <v>1.48399</v>
+        <v>270.341</v>
       </c>
       <c r="O68">
-        <v>1.13361</v>
+        <v>198.983</v>
       </c>
       <c r="P68">
-        <v>1.98663</v>
+        <v>201.206</v>
       </c>
       <c r="Q68">
-        <v>1.20248</v>
+        <v>154.551</v>
       </c>
       <c r="R68">
-        <v>2.19436</v>
+        <v>244.763</v>
       </c>
       <c r="S68">
-        <v>1.97924</v>
+        <v>157.66</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>ENSMUSG00000034227</t>
+          <t>ENSMUSG00000033737</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Foxj1</t>
+          <t>Fndc3c1</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>chr11:116330703-116335399</t>
+          <t>chrX:106420040-106485401</t>
         </is>
       </c>
       <c r="D69">
-        <v>9.63772</v>
+        <v>33.5502</v>
       </c>
       <c r="E69">
-        <v>7.50438</v>
+        <v>44.5331</v>
       </c>
       <c r="F69">
-        <v>2.98216</v>
+        <v>12.6464</v>
       </c>
       <c r="G69">
-        <v>1.53692</v>
+        <v>16.0938</v>
       </c>
       <c r="H69">
-        <v>0.538228</v>
+        <v>11.7674</v>
       </c>
       <c r="I69">
-        <v>0.674145</v>
+        <v>10.2372</v>
       </c>
       <c r="J69">
-        <v>0.0847581</v>
+        <v>1.42611</v>
       </c>
       <c r="K69">
-        <v>0.150665</v>
+        <v>3.52604</v>
       </c>
       <c r="L69">
-        <v>0.0414227</v>
+        <v>61.459</v>
       </c>
       <c r="M69">
-        <v>0.0382837</v>
+        <v>129.388</v>
       </c>
       <c r="N69">
-        <v>0.0535937</v>
+        <v>44.8527</v>
       </c>
       <c r="O69">
-        <v>0.0230654</v>
+        <v>59.7795</v>
       </c>
       <c r="P69">
-        <v>0.192056</v>
+        <v>22.5691</v>
       </c>
       <c r="Q69">
-        <v>0.279758</v>
+        <v>42.6603</v>
       </c>
       <c r="R69">
-        <v>0.209305</v>
+        <v>15.6726</v>
       </c>
       <c r="S69">
-        <v>0.309167</v>
+        <v>28.4881</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>ENSMUSG00000056632</t>
+          <t>ENSMUSG00000032291</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Dsg3</t>
+          <t>Crabp1</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>chr18:20510303-20541310</t>
+          <t>chr9:54764747-54773110</t>
         </is>
       </c>
       <c r="D70">
-        <v>0</v>
+        <v>182.545</v>
       </c>
       <c r="E70">
-        <v>0.0120393</v>
+        <v>141.897</v>
       </c>
       <c r="F70">
-        <v>0.697051</v>
+        <v>148.652</v>
       </c>
       <c r="G70">
-        <v>0.708743</v>
+        <v>107.094</v>
       </c>
       <c r="H70">
-        <v>3.53974</v>
+        <v>40.9714</v>
       </c>
       <c r="I70">
-        <v>2.9576</v>
+        <v>42.461</v>
       </c>
       <c r="J70">
-        <v>7.3241</v>
+        <v>16.0318</v>
       </c>
       <c r="K70">
-        <v>8.479419999999999</v>
+        <v>14.8532</v>
       </c>
       <c r="L70">
-        <v>0</v>
+        <v>410.447</v>
       </c>
       <c r="M70">
-        <v>0</v>
+        <v>348.02</v>
       </c>
       <c r="N70">
-        <v>0.013688</v>
+        <v>294.369</v>
       </c>
       <c r="O70">
-        <v>0</v>
+        <v>158.192</v>
       </c>
       <c r="P70">
-        <v>0.0660314</v>
+        <v>64.6978</v>
       </c>
       <c r="Q70">
-        <v>0.0297714</v>
+        <v>66.1065</v>
       </c>
       <c r="R70">
-        <v>0.008909540000000001</v>
+        <v>69.9606</v>
       </c>
       <c r="S70">
-        <v>0</v>
+        <v>40.3739</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>ENSMUSG00000033965</t>
+          <t>ENSMUSG00000001473</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Slc16a2</t>
+          <t>Tubb6</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>chrX:103697413-103821983</t>
+          <t>chr18:67390716-67402748</t>
         </is>
       </c>
       <c r="D71">
-        <v>1.70152</v>
+        <v>57.6974</v>
       </c>
       <c r="E71">
-        <v>1.3222</v>
+        <v>41.0408</v>
       </c>
       <c r="F71">
-        <v>4.05388</v>
+        <v>155.503</v>
       </c>
       <c r="G71">
-        <v>4.90863</v>
+        <v>100.191</v>
       </c>
       <c r="H71">
-        <v>21.3109</v>
+        <v>14.6842</v>
       </c>
       <c r="I71">
-        <v>8.54522</v>
+        <v>34.0235</v>
       </c>
       <c r="J71">
-        <v>19.785</v>
+        <v>4.11236</v>
       </c>
       <c r="K71">
-        <v>16.7383</v>
+        <v>4.04865</v>
       </c>
       <c r="L71">
-        <v>1.24737</v>
+        <v>62.1898</v>
       </c>
       <c r="M71">
-        <v>0.74975</v>
+        <v>42.9792</v>
       </c>
       <c r="N71">
-        <v>26.9235</v>
+        <v>24.8189</v>
       </c>
       <c r="O71">
-        <v>21.7115</v>
+        <v>19.2142</v>
       </c>
       <c r="P71">
-        <v>23.1367</v>
+        <v>20.6437</v>
       </c>
       <c r="Q71">
-        <v>18.837</v>
+        <v>17.6456</v>
       </c>
       <c r="R71">
-        <v>29.945</v>
+        <v>13.9569</v>
       </c>
       <c r="S71">
-        <v>22.5728</v>
+        <v>9.26399</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>ENSMUSG00000000739</t>
+          <t>ENSMUSG00000042190</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Sult5a1</t>
+          <t>Cmklr1</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>chr8:123140191-123158270</t>
+          <t>chr5:113612353-113650426</t>
         </is>
       </c>
       <c r="D72">
-        <v>2.1615</v>
+        <v>8.403040000000001</v>
       </c>
       <c r="E72">
-        <v>0.420834</v>
+        <v>8.87696</v>
       </c>
       <c r="F72">
-        <v>0.637849</v>
+        <v>1.52375</v>
       </c>
       <c r="G72">
-        <v>2.14087</v>
+        <v>0.800508</v>
       </c>
       <c r="H72">
-        <v>6.79704</v>
+        <v>0.330782</v>
       </c>
       <c r="I72">
-        <v>4.37266</v>
+        <v>0.316678</v>
       </c>
       <c r="J72">
-        <v>24.2901</v>
+        <v>0.0771411</v>
       </c>
       <c r="K72">
-        <v>12.1336</v>
+        <v>0.0979476</v>
       </c>
       <c r="L72">
-        <v>0.488405</v>
+        <v>3.66329</v>
       </c>
       <c r="M72">
-        <v>0.62113</v>
+        <v>5.32046</v>
       </c>
       <c r="N72">
-        <v>0.25717</v>
+        <v>1.48399</v>
       </c>
       <c r="O72">
-        <v>0.624042</v>
+        <v>1.13361</v>
       </c>
       <c r="P72">
-        <v>0.653806</v>
+        <v>1.98663</v>
       </c>
       <c r="Q72">
-        <v>0.611043</v>
+        <v>1.20248</v>
       </c>
       <c r="R72">
-        <v>1.81736</v>
+        <v>2.19436</v>
       </c>
       <c r="S72">
-        <v>1.2192</v>
+        <v>1.97924</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>ENSMUSG00000001021</t>
+          <t>ENSMUSG00000034227</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>S100a3</t>
+          <t>Foxj1</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>chr3:90584658-90602702</t>
+          <t>chr11:116330703-116335399</t>
         </is>
       </c>
       <c r="D73">
-        <v>11.8191</v>
+        <v>9.63772</v>
       </c>
       <c r="E73">
-        <v>9.628769999999999</v>
+        <v>7.50438</v>
       </c>
       <c r="F73">
-        <v>8.831709999999999</v>
+        <v>2.98216</v>
       </c>
       <c r="G73">
-        <v>4.02851</v>
+        <v>1.53692</v>
       </c>
       <c r="H73">
-        <v>0.693991</v>
+        <v>0.538228</v>
       </c>
       <c r="I73">
-        <v>1.63355</v>
+        <v>0.674145</v>
       </c>
       <c r="J73">
-        <v>0.640892</v>
+        <v>0.0847581</v>
       </c>
       <c r="K73">
-        <v>0.55506</v>
+        <v>0.150665</v>
       </c>
       <c r="L73">
-        <v>0</v>
+        <v>0.0414227</v>
       </c>
       <c r="M73">
-        <v>0</v>
+        <v>0.0382837</v>
       </c>
       <c r="N73">
-        <v>0</v>
+        <v>0.0535937</v>
       </c>
       <c r="O73">
-        <v>0.08497349999999999</v>
+        <v>0.0230654</v>
       </c>
       <c r="P73">
-        <v>0.0761302</v>
+        <v>0.192056</v>
       </c>
       <c r="Q73">
-        <v>0</v>
+        <v>0.279758</v>
       </c>
       <c r="R73">
-        <v>0</v>
+        <v>0.209305</v>
       </c>
       <c r="S73">
-        <v>0</v>
+        <v>0.309167</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>ENSMUSG00000047261</t>
+          <t>ENSMUSG00000001021</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Gap43</t>
+          <t>S100a3</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>chr16:42248441-42340651</t>
+          <t>chr3:90584658-90602702</t>
         </is>
       </c>
       <c r="D74">
-        <v>13.4868</v>
+        <v>11.8191</v>
       </c>
       <c r="E74">
-        <v>13.1305</v>
+        <v>9.628769999999999</v>
       </c>
       <c r="F74">
-        <v>20.3129</v>
+        <v>8.831709999999999</v>
       </c>
       <c r="G74">
-        <v>9.81809</v>
+        <v>4.02851</v>
       </c>
       <c r="H74">
-        <v>4.34965</v>
+        <v>0.693991</v>
       </c>
       <c r="I74">
-        <v>3.01275</v>
+        <v>1.63355</v>
       </c>
       <c r="J74">
-        <v>0.678443</v>
+        <v>0.640892</v>
       </c>
       <c r="K74">
-        <v>0.636126</v>
+        <v>0.55506</v>
       </c>
       <c r="L74">
-        <v>36.4468</v>
+        <v>0</v>
       </c>
       <c r="M74">
-        <v>37.7275</v>
+        <v>0</v>
       </c>
       <c r="N74">
-        <v>28.3132</v>
+        <v>0</v>
       </c>
       <c r="O74">
-        <v>20.4935</v>
+        <v>0.08497349999999999</v>
       </c>
       <c r="P74">
-        <v>14.1359</v>
+        <v>0.0761302</v>
       </c>
       <c r="Q74">
-        <v>11.8425</v>
+        <v>0</v>
       </c>
       <c r="R74">
-        <v>10.31</v>
+        <v>0</v>
       </c>
       <c r="S74">
-        <v>6.60831</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>ENSMUSG00000025161</t>
+          <t>ENSMUSG00000047261</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Slc16a3</t>
+          <t>Gap43</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>chr11:120948479-120960868</t>
+          <t>chr16:42248441-42340651</t>
         </is>
       </c>
       <c r="D75">
-        <v>145.677</v>
+        <v>13.4868</v>
       </c>
       <c r="E75">
-        <v>102.285</v>
+        <v>13.1305</v>
       </c>
       <c r="F75">
-        <v>48.7276</v>
+        <v>20.3129</v>
       </c>
       <c r="G75">
-        <v>36.8105</v>
+        <v>9.81809</v>
       </c>
       <c r="H75">
-        <v>27.4046</v>
+        <v>4.34965</v>
       </c>
       <c r="I75">
-        <v>23.0857</v>
+        <v>3.01275</v>
       </c>
       <c r="J75">
-        <v>15.3335</v>
+        <v>0.678443</v>
       </c>
       <c r="K75">
-        <v>10.3357</v>
+        <v>0.636126</v>
       </c>
       <c r="L75">
-        <v>181.987</v>
+        <v>36.4468</v>
       </c>
       <c r="M75">
-        <v>111.464</v>
+        <v>37.7275</v>
       </c>
       <c r="N75">
-        <v>56.2506</v>
+        <v>28.3132</v>
       </c>
       <c r="O75">
-        <v>43.0601</v>
+        <v>20.4935</v>
       </c>
       <c r="P75">
-        <v>34.7724</v>
+        <v>14.1359</v>
       </c>
       <c r="Q75">
-        <v>38.0331</v>
+        <v>11.8425</v>
       </c>
       <c r="R75">
-        <v>40.3528</v>
+        <v>10.31</v>
       </c>
       <c r="S75">
-        <v>28.9181</v>
+        <v>6.60831</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>ENSMUSG00000007379</t>
+          <t>ENSMUSG00000025161</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Dennd2c</t>
+          <t>Slc16a3</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>chr3:103102603-103169769</t>
+          <t>chr11:120948479-120960868</t>
         </is>
       </c>
       <c r="D76">
-        <v>0.06977510000000001</v>
+        <v>145.677</v>
       </c>
       <c r="E76">
-        <v>0.1115</v>
+        <v>102.285</v>
       </c>
       <c r="F76">
-        <v>1.55702</v>
+        <v>48.7276</v>
       </c>
       <c r="G76">
-        <v>2.62867</v>
+        <v>36.8105</v>
       </c>
       <c r="H76">
-        <v>2.65115</v>
+        <v>27.4046</v>
       </c>
       <c r="I76">
-        <v>4.37337</v>
+        <v>23.0857</v>
       </c>
       <c r="J76">
-        <v>8.98324</v>
+        <v>15.3335</v>
       </c>
       <c r="K76">
-        <v>9.64809</v>
+        <v>10.3357</v>
       </c>
       <c r="L76">
-        <v>0.323672</v>
+        <v>181.987</v>
       </c>
       <c r="M76">
-        <v>0.51613</v>
+        <v>111.464</v>
       </c>
       <c r="N76">
-        <v>0.502562</v>
+        <v>56.2506</v>
       </c>
       <c r="O76">
-        <v>0.855609</v>
+        <v>43.0601</v>
       </c>
       <c r="P76">
-        <v>0.876953</v>
+        <v>34.7724</v>
       </c>
       <c r="Q76">
-        <v>0.994816</v>
+        <v>38.0331</v>
       </c>
       <c r="R76">
-        <v>1.31582</v>
+        <v>40.3528</v>
       </c>
       <c r="S76">
-        <v>1.9346</v>
+        <v>28.9181</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>ENSMUSG00000013766</t>
+          <t>ENSMUSG00000060600</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Ly6g6e</t>
+          <t>Eno3</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>chr17:35076901-35078804</t>
+          <t>chr11:70657201-70662513</t>
         </is>
       </c>
       <c r="D77">
-        <v>0.789728</v>
+        <v>38.3064</v>
       </c>
       <c r="E77">
-        <v>0.153969</v>
+        <v>34.9627</v>
       </c>
       <c r="F77">
-        <v>5.36574</v>
+        <v>14.7533</v>
       </c>
       <c r="G77">
-        <v>5.48331</v>
+        <v>9.792540000000001</v>
       </c>
       <c r="H77">
-        <v>9.216060000000001</v>
+        <v>5.58799</v>
       </c>
       <c r="I77">
-        <v>7.34575</v>
+        <v>5.76321</v>
       </c>
       <c r="J77">
-        <v>13.9894</v>
+        <v>3.15263</v>
       </c>
       <c r="K77">
-        <v>7.95565</v>
+        <v>4.70188</v>
       </c>
       <c r="L77">
-        <v>0</v>
+        <v>55.6215</v>
       </c>
       <c r="M77">
-        <v>0.0669447</v>
+        <v>36.6629</v>
       </c>
       <c r="N77">
-        <v>0.128061</v>
+        <v>15.5775</v>
       </c>
       <c r="O77">
-        <v>0</v>
+        <v>12.1701</v>
       </c>
       <c r="P77">
-        <v>0.430861</v>
+        <v>15.5252</v>
       </c>
       <c r="Q77">
-        <v>0</v>
+        <v>10.9759</v>
       </c>
       <c r="R77">
-        <v>0.195202</v>
+        <v>8.94056</v>
       </c>
       <c r="S77">
-        <v>0</v>
+        <v>8.457470000000001</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>ENSMUSG00000062432</t>
+          <t>ENSMUSG00000057615</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Cyp26c1</t>
+          <t>Ldoc1</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>chr19:37685580-37693398</t>
+          <t>chrX:61709496-61710955</t>
         </is>
       </c>
       <c r="D78">
-        <v>0.487218</v>
+        <v>8.75089</v>
       </c>
       <c r="E78">
-        <v>0.0849294</v>
+        <v>8.47451</v>
       </c>
       <c r="F78">
-        <v>1.27929</v>
+        <v>2.44133</v>
       </c>
       <c r="G78">
-        <v>1.95503</v>
+        <v>2.03393</v>
       </c>
       <c r="H78">
-        <v>5.15172</v>
+        <v>0.31448</v>
       </c>
       <c r="I78">
-        <v>5.42007</v>
+        <v>0.430058</v>
       </c>
       <c r="J78">
-        <v>11.3048</v>
+        <v>0.482533</v>
       </c>
       <c r="K78">
-        <v>6.91564</v>
+        <v>0.309561</v>
       </c>
       <c r="L78">
-        <v>0</v>
+        <v>0.0992933</v>
       </c>
       <c r="M78">
-        <v>0</v>
+        <v>0.137653</v>
       </c>
       <c r="N78">
-        <v>0.0482803</v>
+        <v>0.192702</v>
       </c>
       <c r="O78">
-        <v>0</v>
+        <v>0.165869</v>
       </c>
       <c r="P78">
-        <v>0.0221815</v>
+        <v>0.47808</v>
       </c>
       <c r="Q78">
-        <v>0</v>
+        <v>0.251475</v>
       </c>
       <c r="R78">
-        <v>0</v>
+        <v>0.150516</v>
       </c>
       <c r="S78">
-        <v>0.0331566</v>
+        <v>0.277911</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>ENSMUSG00000027377</t>
+          <t>ENSMUSG00000074207</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Mall</t>
+          <t>Adh1</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>chr2:127704385-127729932</t>
+          <t>chr3:138277493-138290698</t>
         </is>
       </c>
       <c r="D79">
-        <v>0.0424312</v>
+        <v>9.81241</v>
       </c>
       <c r="E79">
-        <v>0.172583</v>
+        <v>10.2097</v>
       </c>
       <c r="F79">
-        <v>1.98452</v>
+        <v>1.73198</v>
       </c>
       <c r="G79">
-        <v>1.81425</v>
+        <v>0.975709</v>
       </c>
       <c r="H79">
-        <v>4.04671</v>
+        <v>0.283869</v>
       </c>
       <c r="I79">
-        <v>4.63497</v>
+        <v>0.382315</v>
       </c>
       <c r="J79">
-        <v>10.4178</v>
+        <v>0.794712</v>
       </c>
       <c r="K79">
-        <v>6.50118</v>
+        <v>0.378392</v>
       </c>
       <c r="L79">
-        <v>0.306926</v>
+        <v>0.50976</v>
       </c>
       <c r="M79">
-        <v>0.300353</v>
+        <v>0.336522</v>
       </c>
       <c r="N79">
-        <v>0.0840934</v>
+        <v>0.207284</v>
       </c>
       <c r="O79">
-        <v>0.120639</v>
+        <v>0.1622</v>
       </c>
       <c r="P79">
-        <v>0.231811</v>
+        <v>0.155835</v>
       </c>
       <c r="Q79">
-        <v>0.121935</v>
+        <v>0.081971</v>
       </c>
       <c r="R79">
-        <v>1.03999</v>
+        <v>0.0981244</v>
       </c>
       <c r="S79">
-        <v>0.490887</v>
+        <v>0.0388235</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>ENSMUSG00000091243</t>
+          <t>ENSMUSG00000001493</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Vgll3</t>
+          <t>Meox1</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>chr16:65815256-65866368</t>
+          <t>chr11:101877509-101894374</t>
         </is>
       </c>
       <c r="D80">
-        <v>0.184261</v>
+        <v>20.7826</v>
       </c>
       <c r="E80">
-        <v>0.346867</v>
+        <v>19.2901</v>
       </c>
       <c r="F80">
-        <v>4.43055</v>
+        <v>6.52017</v>
       </c>
       <c r="G80">
-        <v>3.67621</v>
+        <v>4.6994</v>
       </c>
       <c r="H80">
-        <v>4.38455</v>
+        <v>1.94848</v>
       </c>
       <c r="I80">
-        <v>5.58828</v>
+        <v>3.50748</v>
       </c>
       <c r="J80">
-        <v>12.0259</v>
+        <v>1.67971</v>
       </c>
       <c r="K80">
-        <v>9.363049999999999</v>
+        <v>2.02715</v>
       </c>
       <c r="L80">
-        <v>0.0785715</v>
+        <v>7.21744</v>
       </c>
       <c r="M80">
-        <v>0.144119</v>
+        <v>5.04795</v>
       </c>
       <c r="N80">
-        <v>0.103621</v>
+        <v>0.214524</v>
       </c>
       <c r="O80">
-        <v>0.0172637</v>
+        <v>0.190083</v>
       </c>
       <c r="P80">
-        <v>0.138125</v>
+        <v>0.556567</v>
       </c>
       <c r="Q80">
-        <v>0.0697977</v>
+        <v>0.494034</v>
       </c>
       <c r="R80">
-        <v>0.5479889999999999</v>
+        <v>0.7885180000000001</v>
       </c>
       <c r="S80">
-        <v>0.127541</v>
+        <v>0.545969</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>ENSMUSG00000060600</t>
+          <t>ENSMUSG00000029413</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Eno3</t>
+          <t>Naaa</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>chr11:70657201-70662513</t>
+          <t>chr5:92257658-92278170</t>
         </is>
       </c>
       <c r="D81">
-        <v>38.3064</v>
+        <v>12.7244</v>
       </c>
       <c r="E81">
-        <v>34.9627</v>
+        <v>14.8461</v>
       </c>
       <c r="F81">
-        <v>14.7533</v>
+        <v>4.66937</v>
       </c>
       <c r="G81">
-        <v>9.792540000000001</v>
+        <v>3.04485</v>
       </c>
       <c r="H81">
-        <v>5.58799</v>
+        <v>2.97877</v>
       </c>
       <c r="I81">
-        <v>5.76321</v>
+        <v>2.26734</v>
       </c>
       <c r="J81">
-        <v>3.15263</v>
+        <v>0.617247</v>
       </c>
       <c r="K81">
-        <v>4.70188</v>
+        <v>0.827386</v>
       </c>
       <c r="L81">
-        <v>55.6215</v>
+        <v>2.43538</v>
       </c>
       <c r="M81">
-        <v>36.6629</v>
+        <v>2.50968</v>
       </c>
       <c r="N81">
-        <v>15.5775</v>
+        <v>11.3692</v>
       </c>
       <c r="O81">
-        <v>12.1701</v>
+        <v>16.5985</v>
       </c>
       <c r="P81">
-        <v>15.5252</v>
+        <v>3.82016</v>
       </c>
       <c r="Q81">
-        <v>10.9759</v>
+        <v>6.25381</v>
       </c>
       <c r="R81">
-        <v>8.94056</v>
+        <v>1.7766</v>
       </c>
       <c r="S81">
-        <v>8.457470000000001</v>
+        <v>3.31531</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>ENSMUSG00000048251</t>
+          <t>ENSMUSG00000046814</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Bcl11b</t>
+          <t>Gchfr</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>chr12:107910402-108003602</t>
+          <t>chr2:119167772-119172390</t>
         </is>
       </c>
       <c r="D82">
-        <v>1.71344</v>
+        <v>13.1964</v>
       </c>
       <c r="E82">
-        <v>1.46333</v>
+        <v>10.5815</v>
       </c>
       <c r="F82">
-        <v>13.4342</v>
+        <v>3.78983</v>
       </c>
       <c r="G82">
-        <v>12.736</v>
+        <v>2.60422</v>
       </c>
       <c r="H82">
-        <v>15.8263</v>
+        <v>5.80031</v>
       </c>
       <c r="I82">
-        <v>19.7401</v>
+        <v>1.76873</v>
       </c>
       <c r="J82">
-        <v>20.5599</v>
+        <v>0.40213</v>
       </c>
       <c r="K82">
-        <v>17.9758</v>
+        <v>0.175058</v>
       </c>
       <c r="L82">
-        <v>0.164653</v>
+        <v>4.60436</v>
       </c>
       <c r="M82">
-        <v>0.119936</v>
+        <v>2.49099</v>
       </c>
       <c r="N82">
-        <v>2.12486</v>
+        <v>5.36151</v>
       </c>
       <c r="O82">
-        <v>1.73858</v>
+        <v>4.50237</v>
       </c>
       <c r="P82">
-        <v>3.77994</v>
+        <v>15.8008</v>
       </c>
       <c r="Q82">
-        <v>2.8426</v>
+        <v>8.437810000000001</v>
       </c>
       <c r="R82">
-        <v>3.3705</v>
+        <v>12.5406</v>
       </c>
       <c r="S82">
-        <v>3.58196</v>
+        <v>13.8301</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>ENSMUSG00000015312</t>
+          <t>ENSMUSG00000038580</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Gadd45b</t>
+          <t>Sct</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>chr10:80930072-80932204</t>
+          <t>chr7:141278330-141279133</t>
         </is>
       </c>
       <c r="D83">
-        <v>0.341992</v>
+        <v>60.8083</v>
       </c>
       <c r="E83">
-        <v>0.269627</v>
+        <v>54.3575</v>
       </c>
       <c r="F83">
-        <v>3.42684</v>
+        <v>53.8159</v>
       </c>
       <c r="G83">
-        <v>5.76393</v>
+        <v>46.5412</v>
       </c>
       <c r="H83">
-        <v>7.1583</v>
+        <v>17.5302</v>
       </c>
       <c r="I83">
-        <v>9.758839999999999</v>
+        <v>35.6102</v>
       </c>
       <c r="J83">
-        <v>7.47423</v>
+        <v>5.03822</v>
       </c>
       <c r="K83">
-        <v>10.147</v>
+        <v>6.1448</v>
       </c>
       <c r="L83">
-        <v>0.310273</v>
+        <v>0.930179</v>
       </c>
       <c r="M83">
-        <v>0.5599499999999999</v>
+        <v>0.595309</v>
       </c>
       <c r="N83">
-        <v>0.635002</v>
+        <v>1.83066</v>
       </c>
       <c r="O83">
-        <v>0.942379</v>
+        <v>0.835302</v>
       </c>
       <c r="P83">
-        <v>2.87842</v>
+        <v>2.14106</v>
       </c>
       <c r="Q83">
-        <v>3.37239</v>
+        <v>0.362552</v>
       </c>
       <c r="R83">
-        <v>4.04771</v>
+        <v>0.578379</v>
       </c>
       <c r="S83">
-        <v>7.57676</v>
+        <v>0.228494</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>ENSMUSG00000078202</t>
+          <t>ENSMUSG00000028864</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Nrarp</t>
+          <t>Hgf</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>chr2:25180757-25183339</t>
+          <t>chr5:16553549-16620152</t>
         </is>
       </c>
       <c r="D84">
-        <v>6.692</v>
+        <v>9.787699999999999</v>
       </c>
       <c r="E84">
-        <v>4.15655</v>
+        <v>10.5854</v>
       </c>
       <c r="F84">
-        <v>44.3337</v>
+        <v>1.86187</v>
       </c>
       <c r="G84">
-        <v>37.385</v>
+        <v>2.30685</v>
       </c>
       <c r="H84">
-        <v>37.0714</v>
+        <v>0.741319</v>
       </c>
       <c r="I84">
-        <v>49.729</v>
+        <v>1.1062</v>
       </c>
       <c r="J84">
-        <v>55.8241</v>
+        <v>0.374554</v>
       </c>
       <c r="K84">
-        <v>45.8952</v>
+        <v>0.757625</v>
       </c>
       <c r="L84">
-        <v>2.91758</v>
+        <v>10.4904</v>
       </c>
       <c r="M84">
-        <v>2.3335</v>
+        <v>11.3163</v>
       </c>
       <c r="N84">
-        <v>9.625819999999999</v>
+        <v>0.24225</v>
       </c>
       <c r="O84">
-        <v>6.91235</v>
+        <v>0.775373</v>
       </c>
       <c r="P84">
-        <v>6.06329</v>
+        <v>0.132927</v>
       </c>
       <c r="Q84">
-        <v>6.08662</v>
+        <v>0.214022</v>
       </c>
       <c r="R84">
-        <v>4.7487</v>
+        <v>0.0844304</v>
       </c>
       <c r="S84">
-        <v>4.10543</v>
+        <v>0.190332</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>ENSMUSG00000057615</t>
+          <t>ENSMUSG00000001657</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Ldoc1</t>
+          <t>Hoxc8</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>chrX:61709496-61710955</t>
+          <t>chr15:102990606-102993821</t>
         </is>
       </c>
       <c r="D85">
-        <v>8.75089</v>
+        <v>32.8074</v>
       </c>
       <c r="E85">
-        <v>8.47451</v>
+        <v>29.7326</v>
       </c>
       <c r="F85">
-        <v>2.44133</v>
+        <v>34.9579</v>
       </c>
       <c r="G85">
-        <v>2.03393</v>
+        <v>31.0826</v>
       </c>
       <c r="H85">
-        <v>0.31448</v>
+        <v>7.23647</v>
       </c>
       <c r="I85">
-        <v>0.430058</v>
+        <v>16.8864</v>
       </c>
       <c r="J85">
-        <v>0.482533</v>
+        <v>1.94392</v>
       </c>
       <c r="K85">
-        <v>0.309561</v>
+        <v>5.10765</v>
       </c>
       <c r="L85">
-        <v>0.0992933</v>
+        <v>1.648</v>
       </c>
       <c r="M85">
-        <v>0.137653</v>
+        <v>1.69335</v>
       </c>
       <c r="N85">
-        <v>0.192702</v>
+        <v>0.225765</v>
       </c>
       <c r="O85">
-        <v>0.165869</v>
+        <v>0.09716379999999999</v>
       </c>
       <c r="P85">
-        <v>0.47808</v>
+        <v>0.186702</v>
       </c>
       <c r="Q85">
-        <v>0.251475</v>
+        <v>0.130943</v>
       </c>
       <c r="R85">
-        <v>0.150516</v>
+        <v>0</v>
       </c>
       <c r="S85">
-        <v>0.277911</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>ENSMUSG00000074207</t>
+          <t>ENSMUSG00000063415</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Adh1</t>
+          <t>Cyp26b1</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>chr3:138277493-138290698</t>
+          <t>chr6:84571413-84593908</t>
         </is>
       </c>
       <c r="D86">
-        <v>9.81241</v>
+        <v>79.20910000000001</v>
       </c>
       <c r="E86">
-        <v>10.2097</v>
+        <v>67.67619999999999</v>
       </c>
       <c r="F86">
-        <v>1.73198</v>
+        <v>75.29940000000001</v>
       </c>
       <c r="G86">
-        <v>0.975709</v>
+        <v>64.9118</v>
       </c>
       <c r="H86">
-        <v>0.283869</v>
+        <v>51.6961</v>
       </c>
       <c r="I86">
-        <v>0.382315</v>
+        <v>30.9712</v>
       </c>
       <c r="J86">
-        <v>0.794712</v>
+        <v>7.01504</v>
       </c>
       <c r="K86">
-        <v>0.378392</v>
+        <v>6.61854</v>
       </c>
       <c r="L86">
-        <v>0.50976</v>
+        <v>5.09486</v>
       </c>
       <c r="M86">
-        <v>0.336522</v>
+        <v>4.49428</v>
       </c>
       <c r="N86">
-        <v>0.207284</v>
+        <v>173.917</v>
       </c>
       <c r="O86">
-        <v>0.1622</v>
+        <v>166.231</v>
       </c>
       <c r="P86">
-        <v>0.155835</v>
+        <v>95.83459999999999</v>
       </c>
       <c r="Q86">
-        <v>0.081971</v>
+        <v>134.194</v>
       </c>
       <c r="R86">
-        <v>0.0981244</v>
+        <v>114.246</v>
       </c>
       <c r="S86">
-        <v>0.0388235</v>
+        <v>100.693</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>ENSMUSG00000001493</t>
+          <t>ENSMUSG00000027547</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Meox1</t>
+          <t>Sall4</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>chr11:101877509-101894374</t>
+          <t>chr2:168748331-168767201</t>
         </is>
       </c>
       <c r="D87">
-        <v>20.7826</v>
+        <v>13.2226</v>
       </c>
       <c r="E87">
-        <v>19.2901</v>
+        <v>14.882</v>
       </c>
       <c r="F87">
-        <v>6.52017</v>
+        <v>4.7049</v>
       </c>
       <c r="G87">
-        <v>4.6994</v>
+        <v>5.01887</v>
       </c>
       <c r="H87">
-        <v>1.94848</v>
+        <v>5.67834</v>
       </c>
       <c r="I87">
-        <v>3.50748</v>
+        <v>2.09972</v>
       </c>
       <c r="J87">
-        <v>1.67971</v>
+        <v>0.646606</v>
       </c>
       <c r="K87">
-        <v>2.02715</v>
+        <v>0.865067</v>
       </c>
       <c r="L87">
-        <v>7.21744</v>
+        <v>14.5918</v>
       </c>
       <c r="M87">
-        <v>5.04795</v>
+        <v>23.5911</v>
       </c>
       <c r="N87">
-        <v>0.214524</v>
+        <v>17.1777</v>
       </c>
       <c r="O87">
-        <v>0.190083</v>
+        <v>18.5078</v>
       </c>
       <c r="P87">
-        <v>0.556567</v>
+        <v>6.26201</v>
       </c>
       <c r="Q87">
-        <v>0.494034</v>
+        <v>9.317159999999999</v>
       </c>
       <c r="R87">
-        <v>0.7885180000000001</v>
+        <v>1.77707</v>
       </c>
       <c r="S87">
-        <v>0.545969</v>
+        <v>5.00301</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>ENSMUSG00000029413</t>
+          <t>ENSMUSG00000052187</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Naaa</t>
+          <t>Hbb-y</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>chr5:92257658-92278170</t>
+          <t>chr7:103851748-103853216</t>
         </is>
       </c>
       <c r="D88">
-        <v>12.7244</v>
+        <v>36.7092</v>
       </c>
       <c r="E88">
-        <v>14.8461</v>
+        <v>301.978</v>
       </c>
       <c r="F88">
-        <v>4.66937</v>
+        <v>35.3067</v>
       </c>
       <c r="G88">
-        <v>3.04485</v>
+        <v>114.812</v>
       </c>
       <c r="H88">
-        <v>2.97877</v>
+        <v>10.9284</v>
       </c>
       <c r="I88">
-        <v>2.26734</v>
+        <v>21.0864</v>
       </c>
       <c r="J88">
-        <v>0.617247</v>
+        <v>28.9754</v>
       </c>
       <c r="K88">
-        <v>0.827386</v>
+        <v>10.7026</v>
       </c>
       <c r="L88">
-        <v>2.43538</v>
+        <v>1363.5</v>
       </c>
       <c r="M88">
-        <v>2.50968</v>
+        <v>1113.56</v>
       </c>
       <c r="N88">
-        <v>11.3692</v>
+        <v>2282.04</v>
       </c>
       <c r="O88">
-        <v>16.5985</v>
+        <v>2387.72</v>
       </c>
       <c r="P88">
-        <v>3.82016</v>
+        <v>2372.75</v>
       </c>
       <c r="Q88">
-        <v>6.25381</v>
+        <v>2565.42</v>
       </c>
       <c r="R88">
-        <v>1.7766</v>
+        <v>2418.92</v>
       </c>
       <c r="S88">
-        <v>3.31531</v>
+        <v>2098.1</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>ENSMUSG00000061527</t>
+          <t>ENSMUSG00000000120</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Krt5</t>
+          <t>Ngfr</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>chr15:101707069-101712898</t>
+          <t>chr11:95568817-95587735</t>
         </is>
       </c>
       <c r="D89">
-        <v>119.365</v>
+        <v>37.5196</v>
       </c>
       <c r="E89">
-        <v>76.6058</v>
+        <v>35.5644</v>
       </c>
       <c r="F89">
-        <v>360.681</v>
+        <v>11.0457</v>
       </c>
       <c r="G89">
-        <v>289.307</v>
+        <v>6.20675</v>
       </c>
       <c r="H89">
-        <v>424.56</v>
+        <v>24.7859</v>
       </c>
       <c r="I89">
-        <v>461.446</v>
+        <v>4.5355</v>
       </c>
       <c r="J89">
-        <v>1042.93</v>
+        <v>3.82792</v>
       </c>
       <c r="K89">
-        <v>601.437</v>
+        <v>2.17895</v>
       </c>
       <c r="L89">
-        <v>0.362667</v>
+        <v>16.2063</v>
       </c>
       <c r="M89">
-        <v>0.0228535</v>
+        <v>15.5902</v>
       </c>
       <c r="N89">
-        <v>5.40038</v>
+        <v>3.61435</v>
       </c>
       <c r="O89">
-        <v>2.36825</v>
+        <v>7.14561</v>
       </c>
       <c r="P89">
-        <v>9.54224</v>
+        <v>36.1983</v>
       </c>
       <c r="Q89">
-        <v>4.03587</v>
+        <v>23.2819</v>
       </c>
       <c r="R89">
-        <v>1.7159</v>
+        <v>45.3841</v>
       </c>
       <c r="S89">
-        <v>0.131827</v>
+        <v>32.6772</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>ENSMUSG00000040488</t>
+          <t>ENSMUSG00000052396</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Ltbp4</t>
+          <t>Mogat2</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>chr7:27305135-27337692</t>
+          <t>chr7:99219083-99238619</t>
         </is>
       </c>
       <c r="D90">
-        <v>3.35361</v>
+        <v>13.6761</v>
       </c>
       <c r="E90">
-        <v>1.99161</v>
+        <v>5.97377</v>
       </c>
       <c r="F90">
-        <v>5.73968</v>
+        <v>3.57053</v>
       </c>
       <c r="G90">
-        <v>4.90468</v>
+        <v>3.20846</v>
       </c>
       <c r="H90">
-        <v>13.2802</v>
+        <v>4.42171</v>
       </c>
       <c r="I90">
-        <v>11.4504</v>
+        <v>0.576823</v>
       </c>
       <c r="J90">
-        <v>31.8564</v>
+        <v>0.249798</v>
       </c>
       <c r="K90">
-        <v>23.94</v>
+        <v>0.222019</v>
       </c>
       <c r="L90">
-        <v>0.712782</v>
+        <v>85.6396</v>
       </c>
       <c r="M90">
-        <v>0.654914</v>
+        <v>55.8223</v>
       </c>
       <c r="N90">
-        <v>1.70407</v>
+        <v>51.7605</v>
       </c>
       <c r="O90">
-        <v>1.99568</v>
+        <v>26.5115</v>
       </c>
       <c r="P90">
-        <v>3.90682</v>
+        <v>15.1085</v>
       </c>
       <c r="Q90">
-        <v>2.56399</v>
+        <v>13.192</v>
       </c>
       <c r="R90">
-        <v>7.22731</v>
+        <v>5.96299</v>
       </c>
       <c r="S90">
-        <v>5.33594</v>
+        <v>7.02906</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>ENSMUSG00000003812</t>
+          <t>ENSMUSG00000079259</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Dnase2a</t>
+          <t>Trim71</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>chr8:84908559-84911708</t>
+          <t>chr9:114507132-114564369</t>
         </is>
       </c>
       <c r="D91">
-        <v>0.7444809999999999</v>
+        <v>14.1284</v>
       </c>
       <c r="E91">
-        <v>0.5394949999999999</v>
+        <v>20.7273</v>
       </c>
       <c r="F91">
-        <v>4.08422</v>
+        <v>7.98547</v>
       </c>
       <c r="G91">
-        <v>3.12319</v>
+        <v>9.98377</v>
       </c>
       <c r="H91">
-        <v>10.69</v>
+        <v>3.02566</v>
       </c>
       <c r="I91">
-        <v>6.04482</v>
+        <v>6.02688</v>
       </c>
       <c r="J91">
-        <v>11.5154</v>
+        <v>0.853674</v>
       </c>
       <c r="K91">
-        <v>10.108</v>
+        <v>2.54089</v>
       </c>
       <c r="L91">
-        <v>0.7335970000000001</v>
+        <v>11.1268</v>
       </c>
       <c r="M91">
-        <v>0.728216</v>
+        <v>24.7279</v>
       </c>
       <c r="N91">
-        <v>2.47588</v>
+        <v>8.2761</v>
       </c>
       <c r="O91">
-        <v>2.0156</v>
+        <v>11.1964</v>
       </c>
       <c r="P91">
-        <v>3.89527</v>
+        <v>1.91014</v>
       </c>
       <c r="Q91">
-        <v>3.03377</v>
+        <v>4.78352</v>
       </c>
       <c r="R91">
-        <v>4.96408</v>
+        <v>0.349061</v>
       </c>
       <c r="S91">
-        <v>5.09567</v>
+        <v>1.7504</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>ENSMUSG00000046814</t>
+          <t>ENSMUSG00000018339</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Gchfr</t>
+          <t>Gpx3</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>chr2:119167772-119172390</t>
+          <t>chr11:54902452-54910377</t>
         </is>
       </c>
       <c r="D92">
-        <v>13.1964</v>
+        <v>31.0353</v>
       </c>
       <c r="E92">
-        <v>10.5815</v>
+        <v>19.7264</v>
       </c>
       <c r="F92">
-        <v>3.78983</v>
+        <v>16.8337</v>
       </c>
       <c r="G92">
-        <v>2.60422</v>
+        <v>11.6981</v>
       </c>
       <c r="H92">
-        <v>5.80031</v>
+        <v>9.042529999999999</v>
       </c>
       <c r="I92">
-        <v>1.76873</v>
+        <v>7.24041</v>
       </c>
       <c r="J92">
-        <v>0.40213</v>
+        <v>2.11536</v>
       </c>
       <c r="K92">
-        <v>0.175058</v>
+        <v>2.49334</v>
       </c>
       <c r="L92">
-        <v>4.60436</v>
+        <v>22.3575</v>
       </c>
       <c r="M92">
-        <v>2.49099</v>
+        <v>18.6789</v>
       </c>
       <c r="N92">
-        <v>5.36151</v>
+        <v>13.1229</v>
       </c>
       <c r="O92">
-        <v>4.50237</v>
+        <v>9.744260000000001</v>
       </c>
       <c r="P92">
-        <v>15.8008</v>
+        <v>18.5247</v>
       </c>
       <c r="Q92">
-        <v>8.437810000000001</v>
+        <v>13.6051</v>
       </c>
       <c r="R92">
-        <v>12.5406</v>
+        <v>12.8197</v>
       </c>
       <c r="S92">
-        <v>13.8301</v>
+        <v>12.7609</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>ENSMUSG00000038580</t>
+          <t>ENSMUSG00000062393</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Sct</t>
+          <t>Dgkk</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>chr7:141278330-141279133</t>
+          <t>chrX:6779305-6948363</t>
         </is>
       </c>
       <c r="D93">
-        <v>60.8083</v>
+        <v>6.80972</v>
       </c>
       <c r="E93">
-        <v>54.3575</v>
+        <v>7.94882</v>
       </c>
       <c r="F93">
-        <v>53.8159</v>
+        <v>2.40125</v>
       </c>
       <c r="G93">
-        <v>46.5412</v>
+        <v>2.7252</v>
       </c>
       <c r="H93">
-        <v>17.5302</v>
+        <v>1.03097</v>
       </c>
       <c r="I93">
-        <v>35.6102</v>
+        <v>0.967936</v>
       </c>
       <c r="J93">
-        <v>5.03822</v>
+        <v>0.179106</v>
       </c>
       <c r="K93">
-        <v>6.1448</v>
+        <v>0.256851</v>
       </c>
       <c r="L93">
-        <v>0.930179</v>
+        <v>0.5314950000000001</v>
       </c>
       <c r="M93">
-        <v>0.595309</v>
+        <v>0.5061870000000001</v>
       </c>
       <c r="N93">
-        <v>1.83066</v>
+        <v>3.83515</v>
       </c>
       <c r="O93">
-        <v>0.835302</v>
+        <v>6.24272</v>
       </c>
       <c r="P93">
-        <v>2.14106</v>
+        <v>2.7419</v>
       </c>
       <c r="Q93">
-        <v>0.362552</v>
+        <v>4.66682</v>
       </c>
       <c r="R93">
-        <v>0.578379</v>
+        <v>0.721266</v>
       </c>
       <c r="S93">
-        <v>0.228494</v>
+        <v>1.54343</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>ENSMUSG00000035245</t>
+          <t>ENSMUSG00000043342</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Eogt</t>
+          <t>Hoxd9</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>chr6:97110023-97149182</t>
+          <t>chr2:74697726-74700208</t>
         </is>
       </c>
       <c r="D94">
-        <v>2.62498</v>
+        <v>11.0381</v>
       </c>
       <c r="E94">
-        <v>2.84295</v>
+        <v>5.25599</v>
       </c>
       <c r="F94">
-        <v>11.4923</v>
+        <v>3.33511</v>
       </c>
       <c r="G94">
-        <v>20.838</v>
+        <v>3.56495</v>
       </c>
       <c r="H94">
-        <v>19.6863</v>
+        <v>3.56909</v>
       </c>
       <c r="I94">
-        <v>28.8525</v>
+        <v>0.507391</v>
       </c>
       <c r="J94">
-        <v>21.0253</v>
+        <v>0.173471</v>
       </c>
       <c r="K94">
-        <v>31.8366</v>
+        <v>0.105723</v>
       </c>
       <c r="L94">
-        <v>6.20459</v>
+        <v>75.40170000000001</v>
       </c>
       <c r="M94">
-        <v>7.69932</v>
+        <v>82.36539999999999</v>
       </c>
       <c r="N94">
-        <v>29.7445</v>
+        <v>31.6691</v>
       </c>
       <c r="O94">
-        <v>34.9032</v>
+        <v>23.9057</v>
       </c>
       <c r="P94">
-        <v>10.3876</v>
+        <v>6.27708</v>
       </c>
       <c r="Q94">
-        <v>20.652</v>
+        <v>9.47602</v>
       </c>
       <c r="R94">
-        <v>3.89263</v>
+        <v>3.52981</v>
       </c>
       <c r="S94">
-        <v>8.79627</v>
+        <v>6.15585</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>ENSMUSG00000028864</t>
+          <t>ENSMUSG00000038700</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Hgf</t>
+          <t>Hoxb5</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>chr5:16553549-16620152</t>
+          <t>chr11:96303511-96306120</t>
         </is>
       </c>
       <c r="D95">
-        <v>9.787699999999999</v>
+        <v>6.87224</v>
       </c>
       <c r="E95">
-        <v>10.5854</v>
+        <v>4.3585</v>
       </c>
       <c r="F95">
-        <v>1.86187</v>
+        <v>0.368554</v>
       </c>
       <c r="G95">
-        <v>2.30685</v>
+        <v>0.561384</v>
       </c>
       <c r="H95">
-        <v>0.741319</v>
+        <v>0.03725</v>
       </c>
       <c r="I95">
-        <v>1.1062</v>
+        <v>0.120404</v>
       </c>
       <c r="J95">
-        <v>0.374554</v>
+        <v>0</v>
       </c>
       <c r="K95">
-        <v>0.757625</v>
+        <v>0</v>
       </c>
       <c r="L95">
-        <v>10.4904</v>
+        <v>15.7483</v>
       </c>
       <c r="M95">
-        <v>11.3163</v>
+        <v>17.805</v>
       </c>
       <c r="N95">
-        <v>0.24225</v>
+        <v>0.237385</v>
       </c>
       <c r="O95">
-        <v>0.775373</v>
+        <v>0.127706</v>
       </c>
       <c r="P95">
-        <v>0.132927</v>
+        <v>0.204491</v>
       </c>
       <c r="Q95">
-        <v>0.214022</v>
+        <v>0.225885</v>
       </c>
       <c r="R95">
-        <v>0.0844304</v>
+        <v>0.115885</v>
       </c>
       <c r="S95">
-        <v>0.190332</v>
+        <v>0.0917013</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>ENSMUSG00000001657</t>
+          <t>ENSMUSG00000095440</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Hoxc8</t>
+          <t>Fignl2</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>chr15:102990606-102993821</t>
+          <t>chr15:101050193-101078567</t>
         </is>
       </c>
       <c r="D96">
-        <v>32.8074</v>
+        <v>26.0183</v>
       </c>
       <c r="E96">
-        <v>29.7326</v>
+        <v>23.5331</v>
       </c>
       <c r="F96">
-        <v>34.9579</v>
+        <v>14.7214</v>
       </c>
       <c r="G96">
-        <v>31.0826</v>
+        <v>10.9442</v>
       </c>
       <c r="H96">
-        <v>7.23647</v>
+        <v>4.97721</v>
       </c>
       <c r="I96">
-        <v>16.8864</v>
+        <v>6.93968</v>
       </c>
       <c r="J96">
-        <v>1.94392</v>
+        <v>2.29069</v>
       </c>
       <c r="K96">
-        <v>5.10765</v>
+        <v>3.78076</v>
       </c>
       <c r="L96">
-        <v>1.648</v>
+        <v>34.0712</v>
       </c>
       <c r="M96">
-        <v>1.69335</v>
+        <v>33.9146</v>
       </c>
       <c r="N96">
-        <v>0.225765</v>
+        <v>25.1219</v>
       </c>
       <c r="O96">
-        <v>0.09716379999999999</v>
+        <v>20.9338</v>
       </c>
       <c r="P96">
-        <v>0.186702</v>
+        <v>4.21026</v>
       </c>
       <c r="Q96">
-        <v>0.130943</v>
+        <v>7.31839</v>
       </c>
       <c r="R96">
-        <v>0</v>
+        <v>1.42745</v>
       </c>
       <c r="S96">
-        <v>0</v>
+        <v>3.50404</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>ENSMUSG00000063415</t>
+          <t>ENSMUSG00000042607</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Cyp26b1</t>
+          <t>Asb4</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>chr6:84571413-84593908</t>
+          <t>chr6:5383385-5433022</t>
         </is>
       </c>
       <c r="D97">
-        <v>79.20910000000001</v>
+        <v>23.7054</v>
       </c>
       <c r="E97">
-        <v>67.67619999999999</v>
+        <v>21.9741</v>
       </c>
       <c r="F97">
-        <v>75.29940000000001</v>
+        <v>17.4596</v>
       </c>
       <c r="G97">
-        <v>64.9118</v>
+        <v>29.2858</v>
       </c>
       <c r="H97">
-        <v>51.6961</v>
+        <v>31.3117</v>
       </c>
       <c r="I97">
-        <v>30.9712</v>
+        <v>9.49578</v>
       </c>
       <c r="J97">
-        <v>7.01504</v>
+        <v>1.06369</v>
       </c>
       <c r="K97">
-        <v>6.61854</v>
+        <v>1.87198</v>
       </c>
       <c r="L97">
-        <v>5.09486</v>
+        <v>155.561</v>
       </c>
       <c r="M97">
-        <v>4.49428</v>
+        <v>160.526</v>
       </c>
       <c r="N97">
-        <v>173.917</v>
+        <v>300.696</v>
       </c>
       <c r="O97">
-        <v>166.231</v>
+        <v>231.324</v>
       </c>
       <c r="P97">
-        <v>95.83459999999999</v>
+        <v>101.947</v>
       </c>
       <c r="Q97">
-        <v>134.194</v>
+        <v>142.754</v>
       </c>
       <c r="R97">
-        <v>114.246</v>
+        <v>29.7138</v>
       </c>
       <c r="S97">
-        <v>100.693</v>
+        <v>56.6617</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>ENSMUSG00000027547</t>
+          <t>ENSMUSG00000092060</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Sall4</t>
+          <t>Bend4</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>chr2:168748331-168767201</t>
+          <t>chr5:67392146-67428310</t>
         </is>
       </c>
       <c r="D98">
-        <v>13.2226</v>
+        <v>15.0949</v>
       </c>
       <c r="E98">
-        <v>14.882</v>
+        <v>21.4873</v>
       </c>
       <c r="F98">
-        <v>4.7049</v>
+        <v>9.7805</v>
       </c>
       <c r="G98">
-        <v>5.01887</v>
+        <v>9.912459999999999</v>
       </c>
       <c r="H98">
-        <v>5.67834</v>
+        <v>3.15706</v>
       </c>
       <c r="I98">
-        <v>2.09972</v>
+        <v>5.7783</v>
       </c>
       <c r="J98">
-        <v>0.646606</v>
+        <v>1.49021</v>
       </c>
       <c r="K98">
-        <v>0.865067</v>
+        <v>2.66377</v>
       </c>
       <c r="L98">
-        <v>14.5918</v>
+        <v>8.559229999999999</v>
       </c>
       <c r="M98">
-        <v>23.5911</v>
+        <v>15.43</v>
       </c>
       <c r="N98">
-        <v>17.1777</v>
+        <v>5.58997</v>
       </c>
       <c r="O98">
-        <v>18.5078</v>
+        <v>6.92942</v>
       </c>
       <c r="P98">
-        <v>6.26201</v>
+        <v>3.68468</v>
       </c>
       <c r="Q98">
-        <v>9.317159999999999</v>
+        <v>6.1415</v>
       </c>
       <c r="R98">
-        <v>1.77707</v>
+        <v>2.0636</v>
       </c>
       <c r="S98">
-        <v>5.00301</v>
+        <v>4.46995</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>ENSMUSG00000052187</t>
+          <t>ENSMUSG00000051855</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Hbb-y</t>
+          <t>Mest</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>chr7:103851748-103853216</t>
+          <t>chr6:30723546-30748465</t>
         </is>
       </c>
       <c r="D99">
-        <v>36.7092</v>
+        <v>732.984</v>
       </c>
       <c r="E99">
-        <v>301.978</v>
+        <v>703.722</v>
       </c>
       <c r="F99">
-        <v>35.3067</v>
+        <v>280.377</v>
       </c>
       <c r="G99">
-        <v>114.812</v>
+        <v>259.379</v>
       </c>
       <c r="H99">
-        <v>10.9284</v>
+        <v>216.997</v>
       </c>
       <c r="I99">
-        <v>21.0864</v>
+        <v>206.832</v>
       </c>
       <c r="J99">
-        <v>28.9754</v>
+        <v>99.25449999999999</v>
       </c>
       <c r="K99">
-        <v>10.7026</v>
+        <v>99.60809999999999</v>
       </c>
       <c r="L99">
-        <v>1363.5</v>
+        <v>1264.06</v>
       </c>
       <c r="M99">
-        <v>1113.56</v>
+        <v>1339</v>
       </c>
       <c r="N99">
-        <v>2282.04</v>
+        <v>883.737</v>
       </c>
       <c r="O99">
-        <v>2387.72</v>
+        <v>848.486</v>
       </c>
       <c r="P99">
-        <v>2372.75</v>
+        <v>356.075</v>
       </c>
       <c r="Q99">
-        <v>2565.42</v>
+        <v>481.297</v>
       </c>
       <c r="R99">
-        <v>2418.92</v>
+        <v>316.138</v>
       </c>
       <c r="S99">
-        <v>2098.1</v>
+        <v>338.165</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>ENSMUSG00000031910</t>
+          <t>ENSMUSG00000009376</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Has3</t>
+          <t>Met</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>chr8:106870241-106884566</t>
+          <t>chr6:17463799-17573980</t>
         </is>
       </c>
       <c r="D100">
-        <v>0.935826</v>
+        <v>24.4511</v>
       </c>
       <c r="E100">
-        <v>0.91195</v>
+        <v>23.0662</v>
       </c>
       <c r="F100">
-        <v>4.83875</v>
+        <v>15.1246</v>
       </c>
       <c r="G100">
-        <v>6.71788</v>
+        <v>9.91362</v>
       </c>
       <c r="H100">
-        <v>10.2492</v>
+        <v>3.19768</v>
       </c>
       <c r="I100">
-        <v>12.504</v>
+        <v>5.37791</v>
       </c>
       <c r="J100">
-        <v>11.5969</v>
+        <v>3.16779</v>
       </c>
       <c r="K100">
-        <v>11.2235</v>
+        <v>4.24259</v>
       </c>
       <c r="L100">
-        <v>0.0128693</v>
+        <v>4.30197</v>
       </c>
       <c r="M100">
-        <v>0.094065</v>
+        <v>2.00241</v>
       </c>
       <c r="N100">
-        <v>0.0570675</v>
+        <v>0.703922</v>
       </c>
       <c r="O100">
-        <v>0.0307006</v>
+        <v>0.565728</v>
       </c>
       <c r="P100">
-        <v>0.334457</v>
+        <v>0.666254</v>
       </c>
       <c r="Q100">
-        <v>0.176194</v>
+        <v>1.26842</v>
       </c>
       <c r="R100">
-        <v>0.0371452</v>
+        <v>0.59296</v>
       </c>
       <c r="S100">
-        <v>0.0489891</v>
+        <v>0.634479</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>ENSMUSG00000000120</t>
+          <t>ENSMUSG00000031557</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Ngfr</t>
+          <t>Plekha2</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>chr11:95568817-95587735</t>
+          <t>chr8:25039143-25102376</t>
         </is>
       </c>
       <c r="D101">
-        <v>37.5196</v>
+        <v>20.4012</v>
       </c>
       <c r="E101">
-        <v>35.5644</v>
+        <v>16.7828</v>
       </c>
       <c r="F101">
-        <v>11.0457</v>
+        <v>17.6715</v>
       </c>
       <c r="G101">
-        <v>6.20675</v>
+        <v>10.8543</v>
       </c>
       <c r="H101">
-        <v>24.7859</v>
+        <v>3.24482</v>
       </c>
       <c r="I101">
-        <v>4.5355</v>
+        <v>6.10831</v>
       </c>
       <c r="J101">
-        <v>3.82792</v>
+        <v>2.77744</v>
       </c>
       <c r="K101">
-        <v>2.17895</v>
+        <v>2.1396</v>
       </c>
       <c r="L101">
-        <v>16.2063</v>
+        <v>7.0086</v>
       </c>
       <c r="M101">
-        <v>15.5902</v>
+        <v>5.33113</v>
       </c>
       <c r="N101">
-        <v>3.61435</v>
+        <v>0.528024</v>
       </c>
       <c r="O101">
-        <v>7.14561</v>
+        <v>0.758764</v>
       </c>
       <c r="P101">
-        <v>36.1983</v>
+        <v>0.948993</v>
       </c>
       <c r="Q101">
-        <v>23.2819</v>
+        <v>1.22899</v>
       </c>
       <c r="R101">
-        <v>45.3841</v>
+        <v>1.72526</v>
       </c>
       <c r="S101">
-        <v>32.6772</v>
+        <v>1.57009</v>
       </c>
     </row>
   </sheetData>
